--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="659" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Welding" sheetId="8" r:id="rId7"/>
     <sheet name="Temporary" sheetId="1" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="119">
   <si>
     <t>Operation</t>
   </si>
@@ -126,24 +129,12 @@
     <t>Vérification étanchéité carter huile</t>
   </si>
   <si>
-    <t>Couper un tube et l'ébavurer</t>
-  </si>
-  <si>
-    <t>Application frein filet</t>
-  </si>
-  <si>
-    <t>Tout ce que j'aurais oublié sur la motorisation</t>
-  </si>
-  <si>
     <t>Echappement</t>
   </si>
   <si>
     <t>Admission</t>
   </si>
   <si>
-    <t>2-3 exemples différents, fais toi plaisir</t>
-  </si>
-  <si>
     <t>Durée (1min, 2min, 5min, 10 min, … +/-5min près)</t>
   </si>
   <si>
@@ -168,23 +159,248 @@
     <t>5 min</t>
   </si>
   <si>
-    <t>1 min</t>
-  </si>
-  <si>
-    <t>10 min, 20cm²</t>
-  </si>
-  <si>
     <t>15min</t>
   </si>
   <si>
     <t>30 sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Assembly of exhaust system</t>
+  </si>
+  <si>
+    <t>Time (min)</t>
+  </si>
+  <si>
+    <t>By who ?</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Manpower</t>
+  </si>
+  <si>
+    <t>Cost (€)</t>
+  </si>
+  <si>
+    <t>Assembly of intake system</t>
+  </si>
+  <si>
+    <t>For alu welded part (fuel tank, …)</t>
+  </si>
+  <si>
+    <t>Welder</t>
+  </si>
+  <si>
+    <t>Verification that the engine is running</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sealing </t>
+  </si>
+  <si>
+    <t>For oil pan, without &amp; with engine running</t>
+  </si>
+  <si>
+    <t>For fuel system, without &amp; with engine running</t>
+  </si>
+  <si>
+    <t>For cooling system, without &amp; with engine running</t>
+  </si>
+  <si>
+    <t>For fuel lines</t>
+  </si>
+  <si>
+    <t>Drilled hole</t>
+  </si>
+  <si>
+    <t>Machining (CNC)</t>
+  </si>
+  <si>
+    <t>Machining (conventionnal)</t>
+  </si>
+  <si>
+    <t>Machining setup, change</t>
+  </si>
+  <si>
+    <t>Machining setup, install and remove</t>
+  </si>
+  <si>
+    <t>Metrology</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Tapping holes (Manual)</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Number of holes</t>
+  </si>
+  <si>
+    <t>Quantity (by unity)</t>
+  </si>
+  <si>
+    <t>Milling</t>
+  </si>
+  <si>
+    <t>Turning</t>
+  </si>
+  <si>
+    <t>mm^3</t>
+  </si>
+  <si>
+    <t>Number of cut</t>
+  </si>
+  <si>
+    <t>none (fixed cost)</t>
+  </si>
+  <si>
+    <t>Price (€/unity)</t>
+  </si>
+  <si>
+    <t>Turning (CNC)</t>
+  </si>
+  <si>
+    <t>Turning (conventionnal)</t>
+  </si>
+  <si>
+    <t>Milling (conventionnal)</t>
+  </si>
+  <si>
+    <t>Milling (CNC)</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Turning (CNC) - Technician</t>
+  </si>
+  <si>
+    <t>Turning (CNC) - Engineer</t>
+  </si>
+  <si>
+    <t>Turning (CNC) - Operator</t>
+  </si>
+  <si>
+    <t>Milling (CNC) - Operator</t>
+  </si>
+  <si>
+    <t>Milling (CNC) - Technician</t>
+  </si>
+  <si>
+    <t>Milling (CNC) - Engineer</t>
+  </si>
+  <si>
+    <t>Drilled holes</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t>Nbr of part (machining)</t>
+  </si>
+  <si>
+    <t>Price (€)</t>
+  </si>
+  <si>
+    <t>Tapped holes</t>
+  </si>
+  <si>
+    <t>Cutting a tube and chamfering it</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Cut (scissors, knife)</t>
+  </si>
+  <si>
+    <t>Laser cut</t>
+  </si>
+  <si>
+    <t>Laser cut, setup, install and remove</t>
+  </si>
+  <si>
+    <t>Non metal cutting</t>
+  </si>
+  <si>
+    <t>Laser cut - Operator</t>
+  </si>
+  <si>
+    <t>Laser cut - Technician</t>
+  </si>
+  <si>
+    <t>by bending</t>
+  </si>
+  <si>
+    <t>Sheet metal bender</t>
+  </si>
+  <si>
+    <t>Multiplicator</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Aerosol apply</t>
+  </si>
+  <si>
+    <t>Grinding</t>
+  </si>
+  <si>
+    <t>Surface cleaning, by hand</t>
+  </si>
+  <si>
+    <t>Chain oil</t>
+  </si>
+  <si>
+    <t>5 min, 20cm²</t>
+  </si>
+  <si>
+    <t>Nbr of application</t>
+  </si>
+  <si>
+    <t>Nbr of grinding</t>
+  </si>
+  <si>
+    <t>Cleaning + painting</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +408,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -389,11 +626,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -410,8 +687,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,6 +721,76 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="Manpower &amp; time"/>
+      <sheetName val="Energies"/>
+      <sheetName val="Metrology"/>
+      <sheetName val="IT"/>
+      <sheetName val="Office"/>
+      <sheetName val="Manufacturing"/>
+      <sheetName val="CNC mill"/>
+      <sheetName val="CNC lathe"/>
+      <sheetName val="Laser cutter"/>
+      <sheetName val="Welding"/>
+      <sheetName val="Conventionnal machinning"/>
+      <sheetName val="Material"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="47">
+          <cell r="G47" t="str">
+            <v>Operator cost/hour</v>
+          </cell>
+          <cell r="J47">
+            <v>12.68856351404828</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="G48" t="str">
+            <v>Technician cost/hour</v>
+          </cell>
+          <cell r="J48">
+            <v>23.630193905817173</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="G49" t="str">
+            <v>Welder cost/hour</v>
+          </cell>
+          <cell r="J49">
+            <v>29.773842500989314</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="G50" t="str">
+            <v>Engineer cost/hour</v>
+          </cell>
+          <cell r="J50">
+            <v>41.458053027305105</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,19 +1056,1430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14">
+        <f>K2*C2/60</f>
+        <v>7.4016620498614971</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>[1]Summary!$G$47</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="K2" s="16">
+        <f>[1]Summary!$J$47</f>
+        <v>12.68856351404828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>[1]Summary!$G$48</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="K3" s="16">
+        <f>[1]Summary!$J$48</f>
+        <v>23.630193905817173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>[1]Summary!$G$49</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="K4" s="16">
+        <f>[1]Summary!$J$49</f>
+        <v>29.773842500989314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>[1]Summary!$G$50</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="K5" s="16">
+        <f>[1]Summary!$J$50</f>
+        <v>41.458053027305105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14">
+        <f>K2*C2/60</f>
+        <v>1.0573802928373568</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>Assembly!J2</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="K2" s="17">
+        <f>Assembly!K2</f>
+        <v>12.68856351404828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="14">
+        <f>K4*C3/60</f>
+        <v>2.4811535417491095</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>Assembly!J3</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="K3" s="17">
+        <f>Assembly!K3</f>
+        <v>23.630193905817173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="14">
+        <f>$K$2*C4/60</f>
+        <v>3.1721408785120699</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>Assembly!J4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="K4" s="17">
+        <f>Assembly!K4</f>
+        <v>29.773842500989314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" ref="E5:E6" si="0">$K$2*C5/60</f>
+        <v>3.1721408785120699</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>Assembly!J5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="K5" s="17">
+        <f>Assembly!K5</f>
+        <v>41.458053027305105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>3.1721408785120699</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14">
+        <f>$K$2*C2/60</f>
+        <v>2.1147605856747136</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>Assembly!J2</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="K2" s="17">
+        <f>Assembly!K2</f>
+        <v>12.68856351404828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="14">
+        <f>$K$2*C3/60</f>
+        <v>2.1147605856747136</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>Assembly!J3</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="K3" s="17">
+        <f>Assembly!K3</f>
+        <v>23.630193905817173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="1" t="str">
+        <f>Assembly!J4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="K4" s="17">
+        <f>Assembly!K4</f>
+        <v>29.773842500989314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J5" s="1" t="str">
+        <f>Assembly!J5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="K5" s="17">
+        <f>Assembly!K5</f>
+        <v>41.458053027305105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="14">
+        <f>M2*2/60</f>
+        <v>0.42295211713494268</v>
+      </c>
+      <c r="H2" s="14">
+        <f>G2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="L2" s="1" t="str">
+        <f>Assembly!J2</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="M2" s="17">
+        <f>Assembly!K2</f>
+        <v>12.68856351404828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3">
+        <f>VLOOKUP(I3,$A$32:$B$34,2)</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f>Assembly!J3</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="M3" s="17">
+        <f>Assembly!K3</f>
+        <v>23.630193905817173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J6" si="0">VLOOKUP(I4,$A$32:$B$34,2)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>Assembly!J4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="M4" s="17">
+        <f>Assembly!K4</f>
+        <v>29.773842500989314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="I5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f>Assembly!J5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="M5" s="17">
+        <f>Assembly!K5</f>
+        <v>41.458053027305105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="G8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22">
+        <f>$M$2*5/60</f>
+        <v>1.0573802928373568</v>
+      </c>
+      <c r="H27" s="14">
+        <f>F27*G27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22">
+        <f>$M$2*2/60</f>
+        <v>0.42295211713494268</v>
+      </c>
+      <c r="H28" s="14">
+        <f>F28*G28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A26"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I6">
+      <formula1>"Steel,Aluminium,Plastic"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="14">
+        <f>M2*5/60</f>
+        <v>1.0573802928373568</v>
+      </c>
+      <c r="H2" s="22">
+        <f>F2*G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="L2" s="1" t="str">
+        <f>Assembly!J2</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="M2" s="17">
+        <f>Assembly!K2</f>
+        <v>12.68856351404828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="L3" s="1" t="str">
+        <f>Assembly!J3</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="M3" s="17">
+        <f>Assembly!K3</f>
+        <v>23.630193905817173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4">
+        <f>VLOOKUP(I4,$A$13:$B$14,2)</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f>Assembly!J4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="M4" s="17">
+        <f>Assembly!K4</f>
+        <v>29.773842500989314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="L5" s="1" t="str">
+        <f>Assembly!J5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="M5" s="17">
+        <f>Assembly!K5</f>
+        <v>41.458053027305105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4">
+      <formula1>"Steel,Aluminium"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14">
+        <f>K2*2/60</f>
+        <v>0.42295211713494268</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>Assembly!J2</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="K2" s="17">
+        <f>Assembly!K2</f>
+        <v>12.68856351404828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="14">
+        <f>K2*0.5/60</f>
+        <v>0.10573802928373567</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f>Assembly!J3</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="K3" s="17">
+        <f>Assembly!K3</f>
+        <v>23.630193905817173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>Assembly!J4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="K4" s="17">
+        <f>Assembly!K4</f>
+        <v>29.773842500989314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>Assembly!J5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="K5" s="17">
+        <f>Assembly!K5</f>
+        <v>41.458053027305105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -714,72 +2491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,7 +2514,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,25 +2522,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="10"/>
     </row>
@@ -835,7 +2552,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,7 +2563,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -857,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -868,157 +2585,177 @@
         <v>20</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="10" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>48</v>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="153">
   <si>
     <t>Operation</t>
   </si>
@@ -102,24 +102,9 @@
     <t>Installation d'un rilesan</t>
   </si>
   <si>
-    <t>Drexler</t>
-  </si>
-  <si>
-    <t>Circuit d'essence</t>
-  </si>
-  <si>
-    <t>Circuit d'eau</t>
-  </si>
-  <si>
-    <t>Huile moteur</t>
-  </si>
-  <si>
     <t>Peindre une surface de carton jusqu'à la recouvrir entièrement par exemple et me communiquer la surface</t>
   </si>
   <si>
-    <t>Installation roulements roues</t>
-  </si>
-  <si>
     <t>Vérification étanchéité circuit essence (mettre en pression le circuit…)</t>
   </si>
   <si>
@@ -129,18 +114,12 @@
     <t>Vérification étanchéité carter huile</t>
   </si>
   <si>
-    <t>Echappement</t>
-  </si>
-  <si>
     <t>Admission</t>
   </si>
   <si>
     <t>Durée (1min, 2min, 5min, 10 min, … +/-5min près)</t>
   </si>
   <si>
-    <t>Tout ce qui s'assemble à la main et dont tu as une idée du temps d'assemblage</t>
-  </si>
-  <si>
     <t>35 min</t>
   </si>
   <si>
@@ -150,9 +129,6 @@
     <t>10 min</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>15 min</t>
   </si>
   <si>
@@ -174,9 +150,6 @@
     <t>Assembly of exhaust system</t>
   </si>
   <si>
-    <t>Time (min)</t>
-  </si>
-  <si>
     <t>By who ?</t>
   </si>
   <si>
@@ -189,9 +162,6 @@
     <t>Cost (€)</t>
   </si>
   <si>
-    <t>Assembly of intake system</t>
-  </si>
-  <si>
     <t>For alu welded part (fuel tank, …)</t>
   </si>
   <si>
@@ -391,6 +361,138 @@
   </si>
   <si>
     <t>mm</t>
+  </si>
+  <si>
+    <t>To flatten a tube</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>Preparing</t>
+  </si>
+  <si>
+    <t>Y of the collector</t>
+  </si>
+  <si>
+    <t>Exhaust tube</t>
+  </si>
+  <si>
+    <t>By tubes</t>
+  </si>
+  <si>
+    <t>By y</t>
+  </si>
+  <si>
+    <t>Welding</t>
+  </si>
+  <si>
+    <t>For aluminium</t>
+  </si>
+  <si>
+    <t>For steel</t>
+  </si>
+  <si>
+    <t>Assembled together with bolts</t>
+  </si>
+  <si>
+    <t>nbr of bolts</t>
+  </si>
+  <si>
+    <t>15sec</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>Exhaust system</t>
+  </si>
+  <si>
+    <t>nbr of clamps</t>
+  </si>
+  <si>
+    <t>Hoses clamps</t>
+  </si>
+  <si>
+    <t>Assembled together with clamps</t>
+  </si>
+  <si>
+    <t>Engine, remove older shifter axis and put new one</t>
+  </si>
+  <si>
+    <t>Engine, Put the Wet slipper clutch</t>
+  </si>
+  <si>
+    <t>Engine, pan with sealing</t>
+  </si>
+  <si>
+    <t>Engine (oil pan), Draining, modif. oil strainer, new pan</t>
+  </si>
+  <si>
+    <t>Engine, Oil filter</t>
+  </si>
+  <si>
+    <t>Engine, into the frame</t>
+  </si>
+  <si>
+    <t>10min, 2 operator</t>
+  </si>
+  <si>
+    <t>nbr of application</t>
+  </si>
+  <si>
+    <t>Untighten bolts (Ratchet, Wrench, Screwdriver, …)</t>
+  </si>
+  <si>
+    <t>Differential</t>
+  </si>
+  <si>
+    <t>Cooling line</t>
+  </si>
+  <si>
+    <t>Engine oil</t>
+  </si>
+  <si>
+    <t>Tripods</t>
+  </si>
+  <si>
+    <t>1 min for 1 tripods</t>
+  </si>
+  <si>
+    <t>nbr of tripods</t>
+  </si>
+  <si>
+    <t>Differential bearings</t>
+  </si>
+  <si>
+    <t>To mount bearings</t>
+  </si>
+  <si>
+    <t>nbr of bearings</t>
+  </si>
+  <si>
+    <t>nbr of flat</t>
+  </si>
+  <si>
+    <t>15 sec</t>
+  </si>
+  <si>
+    <t>nbr of tie wrap</t>
+  </si>
+  <si>
+    <t>Boot clamp, ligarex strap with buckle</t>
+  </si>
+  <si>
+    <t>Fastener install</t>
+  </si>
+  <si>
+    <t>nbr of fasteners</t>
+  </si>
+  <si>
+    <t>Every</t>
+  </si>
+  <si>
+    <t>nbr of ligarex</t>
   </si>
 </sst>
 </file>
@@ -424,7 +526,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +536,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -695,9 +803,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -705,6 +810,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1056,39 +1167,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="10" max="10" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>83</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -1097,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2">
-        <v>35</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C2" s="26"/>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="14">
-        <f>K2*C2/60</f>
+        <v>39</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="14">
+        <f>$K$2*35/60</f>
         <v>7.4016620498614971</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -1123,7 +1242,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14">
+        <f>$K$2*0.25/60</f>
+        <v>5.2869014641867836E-2</v>
+      </c>
+      <c r="G3" s="14">
+        <f>E3*F3</f>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>[1]Summary!$G$48</f>
@@ -1138,6 +1271,23 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14">
+        <f>$K$2*0.5/60</f>
+        <v>0.10573802928373567</v>
+      </c>
+      <c r="G4" s="14">
+        <f>E4*F4</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="1" t="str">
         <f>[1]Summary!$G$49</f>
         <v>Welder cost/hour</v>
@@ -1151,6 +1301,19 @@
       <c r="A5" t="s">
         <v>1</v>
       </c>
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="14">
+        <f>$K$2*15/60</f>
+        <v>3.1721408785120699</v>
+      </c>
       <c r="J5" s="1" t="str">
         <f>[1]Summary!$G$50</f>
         <v>Engineer cost/hour</v>
@@ -1164,10 +1327,349 @@
       <c r="A6" t="s">
         <v>1</v>
       </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="14">
+        <f>$K$2*10/60</f>
+        <v>2.1147605856747136</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="14">
+        <f>$K$2*15/60</f>
+        <v>3.1721408785120699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="14">
+        <f>$K$2*30/60</f>
+        <v>6.3442817570241399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="14">
+        <f>$K$2*5/60</f>
+        <v>1.0573802928373568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="14">
+        <f>$K$2*2*10/60</f>
+        <v>4.2295211713494272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="14">
+        <f>$K$2*0.25/60</f>
+        <v>5.2869014641867836E-2</v>
+      </c>
+      <c r="G11" s="14">
+        <f>E11*F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="14">
+        <f>$K$2*0.5/60</f>
+        <v>0.10573802928373567</v>
+      </c>
+      <c r="G12" s="14">
+        <f>E12*F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="14">
+        <f>$K$2*5/60</f>
+        <v>1.0573802928373568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="14">
+        <f>$K$2*10/60</f>
+        <v>2.1147605856747136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15:G16" si="0">$K$2*5/60</f>
+        <v>1.0573802928373568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0573802928373568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="14">
+        <f>$K$2*1/60</f>
+        <v>0.21147605856747134</v>
+      </c>
+      <c r="G17" s="14">
+        <f>F17*E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="14">
+        <f>$K$2*0.25/60</f>
+        <v>5.2869014641867836E-2</v>
+      </c>
+      <c r="G18" s="14">
+        <f>F18*E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="14">
+        <f t="shared" ref="E19" si="1">$K$2*1/60</f>
+        <v>0.21147605856747134</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" ref="G19:G20" si="2">F19*E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="14">
+        <f>$K$2*5/60</f>
+        <v>1.0573802928373568</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="14">
+        <f>$K$2*0.5/60</f>
+        <v>0.10573802928373567</v>
+      </c>
+      <c r="G21" s="14">
+        <f>E21*F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="14">
+        <f t="shared" ref="E22:E23" si="3">$K$2*0.5/60</f>
+        <v>0.10573802928373567</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" ref="G22:G23" si="4">E22*F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="3"/>
+        <v>0.10573802928373567</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1683,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,27 +1692,26 @@
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="14.88671875" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -1219,16 +1720,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="14">
-        <f>K2*C2/60</f>
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14">
+        <f>K2*5/60</f>
         <v>1.0573802928373568</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -1242,19 +1740,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="14">
-        <f>K4*C3/60</f>
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="14">
+        <f>K4*5/60</f>
         <v>2.4811535417491095</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -1268,19 +1763,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="14">
-        <f>$K$2*C4/60</f>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="14">
+        <f>$K$2*15/60</f>
         <v>3.1721408785120699</v>
       </c>
       <c r="J4" s="1" t="str">
@@ -1294,19 +1786,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="14">
-        <f t="shared" ref="E5:E6" si="0">$K$2*C5/60</f>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="14">
+        <f>$K$2*15/60</f>
         <v>3.1721408785120699</v>
       </c>
       <c r="J5" s="1" t="str">
@@ -1320,19 +1809,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="14">
-        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="14">
+        <f>$K$2*15/60</f>
         <v>3.1721408785120699</v>
       </c>
     </row>
@@ -1346,7 +1832,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,22 +1847,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1"/>
     </row>
@@ -1385,16 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="14">
-        <f>$K$2*C2/60</f>
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14">
+        <f>$K$2*10/60</f>
         <v>2.1147605856747136</v>
       </c>
       <c r="J2" s="1" t="str">
@@ -1411,16 +1891,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="14">
-        <f>$K$2*C3/60</f>
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="14">
+        <f>$K$2*10/60</f>
         <v>2.1147605856747136</v>
       </c>
       <c r="J3" s="1" t="str">
@@ -1462,7 +1939,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B34"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,54 +1958,54 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E2" s="20"/>
       <c r="F2" s="14">
         <f>M2*2/60</f>
         <v>0.42295211713494268</v>
@@ -1537,8 +2014,8 @@
         <f>G2*F2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="L2" s="1" t="str">
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
@@ -1549,20 +2026,20 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>62</v>
+      <c r="A3" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(I3,$A$32:$B$34,2)</f>
@@ -1578,18 +2055,18 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J6" si="0">VLOOKUP(I4,$A$32:$B$34,2)</f>
@@ -1605,21 +2082,21 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>63</v>
+      <c r="A5" s="25" t="s">
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="20"/>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -1635,21 +2112,21 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E6" s="20"/>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -1657,322 +2134,322 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>64</v>
+      <c r="A7" s="25" t="s">
+        <v>54</v>
       </c>
       <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="25"/>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="G7" t="s">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
+      <c r="B24" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="C24" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="25"/>
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="G11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="C26" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
       <c r="D26" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22">
+        <v>39</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21">
         <f>$M$2*5/60</f>
         <v>1.0573802928373568</v>
       </c>
@@ -1980,24 +2457,24 @@
         <f>F27*G27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22">
+        <v>39</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21">
         <f>$M$2*2/60</f>
         <v>0.42295211713494268</v>
       </c>
@@ -2005,20 +2482,20 @@
         <f>F28*G28</f>
         <v>0</v>
       </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -2026,7 +2503,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1">
         <v>0.5</v>
@@ -2034,7 +2511,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1">
         <v>3</v>
@@ -2042,12 +2519,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A21:A26"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I6">
@@ -2063,7 +2540,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,64 +2559,64 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E2" s="20"/>
       <c r="F2" s="14">
         <f>M2*5/60</f>
         <v>1.0573802928373568</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="21">
         <f>F2*G2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
       <c r="L2" s="1" t="str">
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
@@ -2151,18 +2628,18 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
       <c r="L3" s="1" t="str">
         <f>Assembly!J3</f>
         <v>Technician cost/hour</v>
@@ -2174,17 +2651,17 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="22"/>
+        <v>39</v>
+      </c>
+      <c r="H4" s="21"/>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(I4,$A$13:$B$14,2)</f>
@@ -2201,15 +2678,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
       <c r="L5" s="1" t="str">
         <f>Assembly!J5</f>
         <v>Engineer cost/hour</v>
@@ -2220,96 +2697,96 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>66</v>
+      <c r="A6" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>66</v>
+      <c r="A7" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>67</v>
+      <c r="A8" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="25"/>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
@@ -2317,7 +2794,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -2341,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,43 +2834,43 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E2" s="14">
         <f>K2*2/60</f>
@@ -2410,13 +2887,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E3" s="14">
         <f>K2*0.5/60</f>
@@ -2436,7 +2913,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>Assembly!J4</f>
@@ -2452,10 +2929,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>Assembly!J5</f>
@@ -2468,10 +2945,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2481,22 +2958,112 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="21">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" ref="F3:F5" si="0">D3*E3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2514,7 +3081,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2522,240 +3089,271 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
+      <c r="B11" s="27" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+      <c r="B12" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
+      <c r="B13" s="27" t="s">
+        <v>137</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>113</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>114</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
-        <v>42</v>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -23,6 +23,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="153">
   <si>
     <t>Operation</t>
   </si>
@@ -499,7 +500,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -778,7 +780,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -810,12 +812,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -858,32 +864,20 @@
           <cell r="G47" t="str">
             <v>Operator cost/hour</v>
           </cell>
-          <cell r="J47">
-            <v>12.68856351404828</v>
-          </cell>
         </row>
         <row r="48">
           <cell r="G48" t="str">
             <v>Technician cost/hour</v>
-          </cell>
-          <cell r="J48">
-            <v>23.630193905817173</v>
           </cell>
         </row>
         <row r="49">
           <cell r="G49" t="str">
             <v>Welder cost/hour</v>
           </cell>
-          <cell r="J49">
-            <v>29.773842500989314</v>
-          </cell>
         </row>
         <row r="50">
           <cell r="G50" t="str">
             <v>Engineer cost/hour</v>
-          </cell>
-          <cell r="J50">
-            <v>41.458053027305105</v>
           </cell>
         </row>
       </sheetData>
@@ -899,6 +893,169 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+      <sheetName val="Manpower &amp; time"/>
+      <sheetName val="Energies"/>
+      <sheetName val="Metrology"/>
+      <sheetName val="IT"/>
+      <sheetName val="Office"/>
+      <sheetName val="Manufacturing"/>
+      <sheetName val="CNC mill"/>
+      <sheetName val="CNC lathe"/>
+      <sheetName val="Laser cutter"/>
+      <sheetName val="Welding"/>
+      <sheetName val="Conventionnal machinning"/>
+      <sheetName val="Material"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="43">
+          <cell r="J43">
+            <v>13.458903563382842</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="J44">
+            <v>12.68856351404828</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="J45">
+            <v>23.630193905817173</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="J46">
+            <v>29.773842500989314</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="J47">
+            <v>41.458053027305105</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="R49">
+            <v>1.0221339234709698E-4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="R50">
+            <v>0.20689662451407484</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="R52">
+            <v>2.1789555897859274E-5</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="R53">
+            <v>3.0907581224333346E-5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="R54">
+            <v>4.5764130492239956E-5</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="R55">
+            <v>1.7431644718287417E-5</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="R56">
+            <v>2.4726064979466676E-5</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="R57">
+            <v>3.6611304393791964E-5</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="R58">
+            <v>16.63537475344091</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="R63">
+            <v>9.3413844995384382E-5</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="R64">
+            <v>0.22638620493345551</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="R66">
+            <v>2.1789555897859274E-5</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="R67">
+            <v>3.0907581224333346E-5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="R68">
+            <v>4.5764130492239956E-5</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="R69">
+            <v>1.7431644718287417E-5</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="R70">
+            <v>2.4726064979466676E-5</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="R71">
+            <v>3.6611304393791964E-5</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="R72">
+            <v>14.727211665743539</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="R96">
+            <v>2.166148835302406E-4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="R97">
+            <v>8.23678417651203</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1170,7 +1327,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1218,23 +1375,23 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="14">
         <f>$K$2*35/60</f>
-        <v>7.4016620498614971</v>
+        <v>15.252689128501489</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>[1]Summary!$G$47</f>
         <v>Operator cost/hour</v>
       </c>
       <c r="K2" s="16">
-        <f>[1]Summary!$J$47</f>
-        <v>12.68856351404828</v>
+        <f>[2]Summary!$J$44+[2]Summary!$J$43</f>
+        <v>26.147467077431124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1252,7 +1409,7 @@
       </c>
       <c r="E3" s="14">
         <f>$K$2*0.25/60</f>
-        <v>5.2869014641867836E-2</v>
+        <v>0.10894777948929635</v>
       </c>
       <c r="G3" s="14">
         <f>E3*F3</f>
@@ -1263,8 +1420,8 @@
         <v>Technician cost/hour</v>
       </c>
       <c r="K3" s="16">
-        <f>[1]Summary!$J$48</f>
-        <v>23.630193905817173</v>
+        <f>[2]Summary!$J$45+[2]Summary!$J$43</f>
+        <v>37.089097469200013</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1282,7 +1439,7 @@
       </c>
       <c r="E4" s="14">
         <f>$K$2*0.5/60</f>
-        <v>0.10573802928373567</v>
+        <v>0.2178955589785927</v>
       </c>
       <c r="G4" s="14">
         <f>E4*F4</f>
@@ -1293,8 +1450,8 @@
         <v>Welder cost/hour</v>
       </c>
       <c r="K4" s="16">
-        <f>[1]Summary!$J$49</f>
-        <v>29.773842500989314</v>
+        <f>[2]Summary!$J$46+[2]Summary!$J$43</f>
+        <v>43.232746064372158</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1304,23 +1461,23 @@
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="25"/>
       <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="14">
         <f>$K$2*15/60</f>
-        <v>3.1721408785120699</v>
+        <v>6.5368667693577809</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>[1]Summary!$G$50</f>
         <v>Engineer cost/hour</v>
       </c>
       <c r="K5" s="16">
-        <f>[1]Summary!$J$50</f>
-        <v>41.458053027305105</v>
+        <f>[2]Summary!$J$47+[2]Summary!$J$43</f>
+        <v>54.916956590687946</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1330,16 +1487,17 @@
       <c r="B6" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="26"/>
+      <c r="C6" s="25"/>
       <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="14">
         <f>$K$2*10/60</f>
-        <v>2.1147605856747136</v>
-      </c>
+        <v>4.3579111795718539</v>
+      </c>
+      <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1348,15 +1506,15 @@
       <c r="B7" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="25"/>
       <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="14">
         <f>$K$2*15/60</f>
-        <v>3.1721408785120699</v>
+        <v>6.5368667693577809</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1366,15 +1524,15 @@
       <c r="B8" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="25"/>
       <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="14">
         <f>$K$2*30/60</f>
-        <v>6.3442817570241399</v>
+        <v>13.073733538715562</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1384,37 +1542,37 @@
       <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="25"/>
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="14">
         <f>$K$2*5/60</f>
-        <v>1.0573802928373568</v>
+        <v>2.178955589785927</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="25"/>
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="14">
         <f>$K$2*2*10/60</f>
-        <v>4.2295211713494272</v>
+        <v>8.7158223591437078</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B11" t="s">
@@ -1428,7 +1586,7 @@
       </c>
       <c r="E11" s="14">
         <f>$K$2*0.25/60</f>
-        <v>5.2869014641867836E-2</v>
+        <v>0.10894777948929635</v>
       </c>
       <c r="G11" s="14">
         <f>E11*F11</f>
@@ -1436,7 +1594,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>149</v>
       </c>
       <c r="B12" t="s">
@@ -1450,7 +1608,7 @@
       </c>
       <c r="E12" s="14">
         <f>$K$2*0.5/60</f>
-        <v>0.10573802928373567</v>
+        <v>0.2178955589785927</v>
       </c>
       <c r="G12" s="14">
         <f>E12*F12</f>
@@ -1461,79 +1619,79 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="25"/>
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="14">
         <f>$K$2*5/60</f>
-        <v>1.0573802928373568</v>
+        <v>2.178955589785927</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="25"/>
       <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="14">
         <f>$K$2*10/60</f>
-        <v>2.1147605856747136</v>
+        <v>4.3579111795718539</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="25"/>
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="14">
         <f t="shared" ref="G15:G16" si="0">$K$2*5/60</f>
-        <v>1.0573802928373568</v>
+        <v>2.178955589785927</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="25"/>
       <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>1.0573802928373568</v>
+        <v>2.178955589785927</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>139</v>
       </c>
       <c r="C17" t="s">
@@ -1544,7 +1702,7 @@
       </c>
       <c r="E17" s="14">
         <f>$K$2*1/60</f>
-        <v>0.21147605856747134</v>
+        <v>0.43579111795718539</v>
       </c>
       <c r="G17" s="14">
         <f>F17*E17</f>
@@ -1555,7 +1713,7 @@
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="27"/>
       <c r="C18" t="s">
         <v>147</v>
       </c>
@@ -1564,7 +1722,7 @@
       </c>
       <c r="E18" s="14">
         <f>$K$2*0.25/60</f>
-        <v>5.2869014641867836E-2</v>
+        <v>0.10894777948929635</v>
       </c>
       <c r="G18" s="14">
         <f>F18*E18</f>
@@ -1575,7 +1733,7 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>109</v>
       </c>
       <c r="C19" t="s">
@@ -1586,7 +1744,7 @@
       </c>
       <c r="E19" s="14">
         <f t="shared" ref="E19" si="1">$K$2*1/60</f>
-        <v>0.21147605856747134</v>
+        <v>0.43579111795718539</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" ref="G19:G20" si="2">F19*E19</f>
@@ -1597,7 +1755,7 @@
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C20" t="s">
@@ -1608,7 +1766,7 @@
       </c>
       <c r="E20" s="14">
         <f>$K$2*5/60</f>
-        <v>1.0573802928373568</v>
+        <v>2.178955589785927</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="2"/>
@@ -1627,7 +1785,7 @@
       </c>
       <c r="E21" s="14">
         <f>$K$2*0.5/60</f>
-        <v>0.10573802928373567</v>
+        <v>0.2178955589785927</v>
       </c>
       <c r="G21" s="14">
         <f>E21*F21</f>
@@ -1646,7 +1804,7 @@
       </c>
       <c r="E22" s="14">
         <f t="shared" ref="E22:E23" si="3">$K$2*0.5/60</f>
-        <v>0.10573802928373567</v>
+        <v>0.2178955589785927</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" ref="G22:G23" si="4">E22*F22</f>
@@ -1665,7 +1823,7 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" si="3"/>
-        <v>0.10573802928373567</v>
+        <v>0.2178955589785927</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="4"/>
@@ -1727,7 +1885,7 @@
       </c>
       <c r="D2" s="14">
         <f>K2*5/60</f>
-        <v>1.0573802928373568</v>
+        <v>2.178955589785927</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>Assembly!J2</f>
@@ -1735,7 +1893,7 @@
       </c>
       <c r="K2" s="17">
         <f>Assembly!K2</f>
-        <v>12.68856351404828</v>
+        <v>26.147467077431124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1750,7 +1908,7 @@
       </c>
       <c r="D3" s="14">
         <f>K4*5/60</f>
-        <v>2.4811535417491095</v>
+        <v>3.6027288386976797</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>Assembly!J3</f>
@@ -1758,7 +1916,7 @@
       </c>
       <c r="K3" s="17">
         <f>Assembly!K3</f>
-        <v>23.630193905817173</v>
+        <v>37.089097469200013</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1773,7 +1931,7 @@
       </c>
       <c r="D4" s="14">
         <f>$K$2*15/60</f>
-        <v>3.1721408785120699</v>
+        <v>6.5368667693577809</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>Assembly!J4</f>
@@ -1781,7 +1939,7 @@
       </c>
       <c r="K4" s="17">
         <f>Assembly!K4</f>
-        <v>29.773842500989314</v>
+        <v>43.232746064372158</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1796,7 +1954,7 @@
       </c>
       <c r="D5" s="14">
         <f>$K$2*15/60</f>
-        <v>3.1721408785120699</v>
+        <v>6.5368667693577809</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>Assembly!J5</f>
@@ -1804,7 +1962,7 @@
       </c>
       <c r="K5" s="17">
         <f>Assembly!K5</f>
-        <v>41.458053027305105</v>
+        <v>54.916956590687946</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1819,7 +1977,7 @@
       </c>
       <c r="D6" s="14">
         <f>$K$2*15/60</f>
-        <v>3.1721408785120699</v>
+        <v>6.5368667693577809</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2033,7 @@
       </c>
       <c r="D2" s="14">
         <f>$K$2*10/60</f>
-        <v>2.1147605856747136</v>
+        <v>4.3579111795718539</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>Assembly!J2</f>
@@ -1883,7 +2041,7 @@
       </c>
       <c r="K2" s="17">
         <f>Assembly!K2</f>
-        <v>12.68856351404828</v>
+        <v>26.147467077431124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1898,7 +2056,7 @@
       </c>
       <c r="D3" s="14">
         <f>$K$2*10/60</f>
-        <v>2.1147605856747136</v>
+        <v>4.3579111795718539</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>Assembly!J3</f>
@@ -1906,7 +2064,7 @@
       </c>
       <c r="K3" s="17">
         <f>Assembly!K3</f>
-        <v>23.630193905817173</v>
+        <v>37.089097469200013</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1916,7 +2074,7 @@
       </c>
       <c r="K4" s="17">
         <f>Assembly!K4</f>
-        <v>29.773842500989314</v>
+        <v>43.232746064372158</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1926,7 +2084,7 @@
       </c>
       <c r="K5" s="17">
         <f>Assembly!K5</f>
-        <v>41.458053027305105</v>
+        <v>54.916956590687946</v>
       </c>
     </row>
   </sheetData>
@@ -1936,10 +2094,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1956,7 +2114,7 @@
     <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1987,12 +2145,11 @@
       <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L1" s="31"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>51</v>
       </c>
@@ -2008,25 +2165,20 @@
       <c r="E2" s="20"/>
       <c r="F2" s="14">
         <f>M2*2/60</f>
-        <v>0.42295211713494268</v>
-      </c>
-      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="21">
         <f>G2*F2</f>
         <v>0</v>
       </c>
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
-      <c r="L2" s="1" t="str">
-        <f>Assembly!J2</f>
-        <v>Operator cost/hour</v>
-      </c>
-      <c r="M2" s="17">
-        <f>Assembly!K2</f>
-        <v>12.68856351404828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
@@ -2038,24 +2190,30 @@
       <c r="D3" t="s">
         <v>39</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="30">
+        <f>([2]Summary!$R$63*[2]Summary!$R$64/E3+[2]Summary!$R$63*(1-[2]Summary!$R$64))*J3</f>
+        <v>9.3413844995384382E-5</v>
+      </c>
+      <c r="H3" s="21">
+        <f t="shared" ref="H3:H6" si="0">G3*F3</f>
+        <v>0</v>
+      </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J3">
         <f>VLOOKUP(I3,$A$32:$B$34,2)</f>
-        <v>3</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f>Assembly!J3</f>
-        <v>Technician cost/hour</v>
-      </c>
-      <c r="M3" s="17">
-        <f>Assembly!K3</f>
-        <v>23.630193905817173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2065,24 +2223,30 @@
       <c r="D4" t="s">
         <v>39</v>
       </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="30">
+        <f>([2]Summary!$R$49*[2]Summary!$R$50/E4 + [2]Summary!$R$49* (1 - [2]Summary!$R$50))*J4</f>
+        <v>1.0221339234709698E-4</v>
+      </c>
+      <c r="H4" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J6" si="0">VLOOKUP(I4,$A$32:$B$34,2)</f>
-        <v>3</v>
-      </c>
-      <c r="L4" s="1" t="str">
-        <f>Assembly!J4</f>
-        <v>Welder cost/hour</v>
-      </c>
-      <c r="M4" s="17">
-        <f>Assembly!K4</f>
-        <v>29.773842500989314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+        <f t="shared" ref="J4:J6" si="1">VLOOKUP(I4,$A$32:$B$34,2)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -2095,24 +2259,27 @@
         <v>39</v>
       </c>
       <c r="E5" s="20"/>
+      <c r="F5" s="30">
+        <f>[2]Summary!$R$96*J5</f>
+        <v>2.166148835302406E-4</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L5" s="1" t="str">
-        <f>Assembly!J5</f>
-        <v>Engineer cost/hour</v>
-      </c>
-      <c r="M5" s="17">
-        <f>Assembly!K5</f>
-        <v>41.458053027305105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
@@ -2125,16 +2292,27 @@
         <v>39</v>
       </c>
       <c r="E6" s="20"/>
+      <c r="F6" s="30">
+        <f>[2]Summary!$R$96</f>
+        <v>2.166148835302406E-4</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -2144,14 +2322,25 @@
         <v>39</v>
       </c>
       <c r="E7" s="20"/>
+      <c r="F7" s="14">
+        <f>[2]Summary!$R$72</f>
+        <v>14.727211665743539</v>
+      </c>
       <c r="G7" t="s">
         <v>67</v>
       </c>
+      <c r="H7" s="21">
+        <f>F7</f>
+        <v>14.727211665743539</v>
+      </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
       <c r="B8" t="s">
         <v>70</v>
       </c>
@@ -2159,14 +2348,25 @@
         <v>39</v>
       </c>
       <c r="E8" s="20"/>
+      <c r="F8" s="14">
+        <f>[2]Summary!$R$97</f>
+        <v>8.23678417651203</v>
+      </c>
       <c r="G8" t="s">
         <v>67</v>
       </c>
+      <c r="H8" s="21">
+        <f t="shared" ref="H8:H14" si="2">F8</f>
+        <v>8.23678417651203</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -2174,14 +2374,22 @@
         <v>39</v>
       </c>
       <c r="E9" s="20"/>
+      <c r="F9" s="14">
+        <f>[2]Summary!$R$58</f>
+        <v>16.63537475344091</v>
+      </c>
       <c r="G9" t="s">
         <v>67</v>
       </c>
+      <c r="H9" s="21">
+        <f t="shared" si="2"/>
+        <v>16.63537475344091</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>54</v>
       </c>
       <c r="B10" t="s">
@@ -2191,14 +2399,22 @@
         <v>39</v>
       </c>
       <c r="E10" s="20"/>
+      <c r="F10" s="14">
+        <f>[2]Summary!$R$97</f>
+        <v>8.23678417651203</v>
+      </c>
       <c r="G10" t="s">
         <v>67</v>
       </c>
+      <c r="H10" s="21">
+        <f t="shared" si="2"/>
+        <v>8.23678417651203</v>
+      </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
@@ -2208,14 +2424,22 @@
         <v>39</v>
       </c>
       <c r="E11" s="20"/>
+      <c r="F11" s="14">
+        <f>[2]Summary!$R$72</f>
+        <v>14.727211665743539</v>
+      </c>
       <c r="G11" t="s">
         <v>67</v>
       </c>
+      <c r="H11" s="21">
+        <f t="shared" si="2"/>
+        <v>14.727211665743539</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -2223,14 +2447,22 @@
         <v>39</v>
       </c>
       <c r="E12" s="20"/>
+      <c r="F12" s="14">
+        <f>[2]Summary!$R$97</f>
+        <v>8.23678417651203</v>
+      </c>
       <c r="G12" t="s">
         <v>67</v>
       </c>
+      <c r="H12" s="21">
+        <f t="shared" si="2"/>
+        <v>8.23678417651203</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -2238,14 +2470,22 @@
         <v>39</v>
       </c>
       <c r="E13" s="20"/>
+      <c r="F13" s="14">
+        <f>[2]Summary!$R$58</f>
+        <v>16.63537475344091</v>
+      </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
+      <c r="H13" s="21">
+        <f t="shared" si="2"/>
+        <v>16.63537475344091</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
@@ -2255,14 +2495,22 @@
         <v>39</v>
       </c>
       <c r="E14" s="20"/>
+      <c r="F14" s="14">
+        <f>[2]Summary!$R$97</f>
+        <v>8.23678417651203</v>
+      </c>
       <c r="G14" t="s">
         <v>67</v>
       </c>
+      <c r="H14" s="21">
+        <f t="shared" si="2"/>
+        <v>8.23678417651203</v>
+      </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2274,11 +2522,22 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <f>[2]Summary!$R$69/E15</f>
+        <v>1.7431644718287417E-5</v>
+      </c>
+      <c r="H15" s="21">
+        <f>G15*F15</f>
+        <v>0</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
       <c r="B16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2288,11 +2547,22 @@
       <c r="D16" t="s">
         <v>45</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <f>[2]Summary!$R$70/E16</f>
+        <v>2.4726064979466676E-5</v>
+      </c>
+      <c r="H16" s="21">
+        <f>G16*F16</f>
+        <v>0</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="19" t="s">
         <v>75</v>
       </c>
@@ -2302,11 +2572,22 @@
       <c r="D17" t="s">
         <v>73</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="30">
+        <f>[2]Summary!$R$71/E17</f>
+        <v>3.6611304393791964E-5</v>
+      </c>
+      <c r="H17" s="21">
+        <f t="shared" ref="H16:H28" si="3">G17*F17</f>
+        <v>0</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" t="s">
         <v>77</v>
       </c>
@@ -2316,11 +2597,22 @@
       <c r="D18" t="s">
         <v>39</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="30">
+        <f>[2]Summary!$R$55/E18</f>
+        <v>1.7431644718287417E-5</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -2330,11 +2622,22 @@
       <c r="D19" t="s">
         <v>45</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30">
+        <f>[2]Summary!$R$56/E19</f>
+        <v>2.4726064979466676E-5</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B20" t="s">
@@ -2346,11 +2649,22 @@
       <c r="D20" t="s">
         <v>73</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30">
+        <f>[2]Summary!$R$57/E20</f>
+        <v>3.6611304393791964E-5</v>
+      </c>
+      <c r="H20" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -2362,11 +2676,22 @@
       <c r="D21" t="s">
         <v>39</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30">
+        <f>[2]Summary!$R$66/E21</f>
+        <v>2.1789555897859274E-5</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="19" t="s">
         <v>74</v>
       </c>
@@ -2376,11 +2701,22 @@
       <c r="D22" t="s">
         <v>45</v>
       </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30">
+        <f>[2]Summary!$R$67/E22</f>
+        <v>3.0907581224333346E-5</v>
+      </c>
+      <c r="H22" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="19" t="s">
         <v>75</v>
       </c>
@@ -2390,11 +2726,22 @@
       <c r="D23" t="s">
         <v>73</v>
       </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <f>[2]Summary!$R$68/E23</f>
+        <v>4.5764130492239956E-5</v>
+      </c>
+      <c r="H23" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+      <c r="A24" s="28"/>
       <c r="B24" t="s">
         <v>77</v>
       </c>
@@ -2404,11 +2751,22 @@
       <c r="D24" t="s">
         <v>39</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="30">
+        <f>[2]Summary!$R$52/E24</f>
+        <v>2.1789555897859274E-5</v>
+      </c>
+      <c r="H24" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+      <c r="A25" s="28"/>
       <c r="B25" t="s">
         <v>78</v>
       </c>
@@ -2418,11 +2776,22 @@
       <c r="D25" t="s">
         <v>45</v>
       </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="30">
+        <f>[2]Summary!$R$53/E25</f>
+        <v>3.0907581224333346E-5</v>
+      </c>
+      <c r="H25" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
+      <c r="A26" s="28"/>
       <c r="B26" t="s">
         <v>79</v>
       </c>
@@ -2431,6 +2800,17 @@
       </c>
       <c r="D26" t="s">
         <v>73</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30">
+        <f>[2]Summary!$R$54/E26</f>
+        <v>4.5764130492239956E-5</v>
+      </c>
+      <c r="H26" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
@@ -2451,10 +2831,10 @@
       <c r="E27" s="20"/>
       <c r="F27" s="21">
         <f>$M$2*5/60</f>
-        <v>1.0573802928373568</v>
-      </c>
-      <c r="H27" s="14">
-        <f>F27*G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I27" s="20"/>
@@ -2476,10 +2856,10 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21">
         <f>$M$2*2/60</f>
-        <v>0.42295211713494268</v>
-      </c>
-      <c r="H28" s="14">
-        <f>F28*G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I28" s="20"/>
@@ -2514,7 +2894,7 @@
         <v>97</v>
       </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2920,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,7 +2989,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="14">
         <f>M2*5/60</f>
-        <v>1.0573802928373568</v>
+        <v>2.178955589785927</v>
       </c>
       <c r="H2" s="21">
         <f>F2*G2</f>
@@ -2623,7 +3003,7 @@
       </c>
       <c r="M2" s="17">
         <f>Assembly!K2</f>
-        <v>12.68856351404828</v>
+        <v>26.147467077431124</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2646,7 +3026,7 @@
       </c>
       <c r="M3" s="17">
         <f>Assembly!K3</f>
-        <v>23.630193905817173</v>
+        <v>37.089097469200013</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2673,7 +3053,7 @@
       </c>
       <c r="M4" s="17">
         <f>Assembly!K4</f>
-        <v>29.773842500989314</v>
+        <v>43.232746064372158</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2693,11 +3073,11 @@
       </c>
       <c r="M5" s="17">
         <f>Assembly!K5</f>
-        <v>41.458053027305105</v>
+        <v>54.916956590687946</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
@@ -2712,7 +3092,7 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
@@ -2727,7 +3107,7 @@
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -2739,12 +3119,13 @@
       <c r="D8" t="s">
         <v>39</v>
       </c>
+      <c r="E8" s="20"/>
       <c r="H8" s="21"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+      <c r="A9" s="28"/>
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -2754,6 +3135,7 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
+      <c r="E9" s="20"/>
       <c r="H9" s="21"/>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -2874,7 +3256,7 @@
       </c>
       <c r="E2" s="14">
         <f>K2*2/60</f>
-        <v>0.42295211713494268</v>
+        <v>0.87158223591437078</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>Assembly!J2</f>
@@ -2882,7 +3264,7 @@
       </c>
       <c r="K2" s="17">
         <f>Assembly!K2</f>
-        <v>12.68856351404828</v>
+        <v>26.147467077431124</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2897,7 +3279,7 @@
       </c>
       <c r="E3" s="14">
         <f>K2*0.5/60</f>
-        <v>0.10573802928373567</v>
+        <v>0.2178955589785927</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>Assembly!J3</f>
@@ -2905,7 +3287,7 @@
       </c>
       <c r="K3" s="17">
         <f>Assembly!K3</f>
-        <v>23.630193905817173</v>
+        <v>37.089097469200013</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2921,7 +3303,7 @@
       </c>
       <c r="K4" s="17">
         <f>Assembly!K4</f>
-        <v>29.773842500989314</v>
+        <v>43.232746064372158</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2940,7 +3322,7 @@
       </c>
       <c r="K5" s="17">
         <f>Assembly!K5</f>
-        <v>41.458053027305105</v>
+        <v>54.916956590687946</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2994,7 +3376,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>111</v>
       </c>
       <c r="B2" t="s">
@@ -3009,7 +3391,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="28"/>
       <c r="B3" t="s">
         <v>112</v>
       </c>
@@ -3022,7 +3404,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>116</v>
       </c>
       <c r="B4" t="s">
@@ -3037,7 +3419,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -3179,7 +3561,7 @@
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -3188,7 +3570,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3197,7 +3579,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="26" t="s">
         <v>137</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3206,7 +3588,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="10" t="s">

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="153">
   <si>
     <t>Operation</t>
   </si>
@@ -815,13 +815,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -918,144 +918,194 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="42">
+          <cell r="J42">
+            <v>11.782881041914944</v>
+          </cell>
+        </row>
         <row r="43">
           <cell r="J43">
-            <v>13.458903563382842</v>
+            <v>12.68856351404828</v>
           </cell>
         </row>
         <row r="44">
           <cell r="J44">
-            <v>12.68856351404828</v>
+            <v>23.630193905817173</v>
           </cell>
         </row>
         <row r="45">
           <cell r="J45">
-            <v>23.630193905817173</v>
+            <v>29.773842500989314</v>
           </cell>
         </row>
         <row r="46">
           <cell r="J46">
-            <v>29.773842500989314</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47">
             <v>41.458053027305105</v>
           </cell>
         </row>
         <row r="49">
           <cell r="R49">
-            <v>1.0221339234709698E-4</v>
+            <v>9.9420021477983827E-5</v>
           </cell>
         </row>
         <row r="50">
           <cell r="R50">
-            <v>0.20689662451407484</v>
+            <v>0.21270972931171805</v>
           </cell>
         </row>
         <row r="52">
           <cell r="R52">
-            <v>2.1789555897859274E-5</v>
+            <v>2.0392870463302686E-5</v>
           </cell>
         </row>
         <row r="53">
           <cell r="R53">
-            <v>3.0907581224333346E-5</v>
+            <v>2.9510895789776764E-5</v>
           </cell>
         </row>
         <row r="54">
           <cell r="R54">
-            <v>4.5764130492239956E-5</v>
+            <v>4.4367445057683372E-5</v>
           </cell>
         </row>
         <row r="55">
           <cell r="R55">
-            <v>1.7431644718287417E-5</v>
+            <v>1.6314296370642149E-5</v>
           </cell>
         </row>
         <row r="56">
           <cell r="R56">
-            <v>2.4726064979466676E-5</v>
+            <v>2.3608716631821412E-5</v>
           </cell>
         </row>
         <row r="57">
           <cell r="R57">
-            <v>3.6611304393791964E-5</v>
+            <v>3.5493956046146703E-5</v>
           </cell>
         </row>
         <row r="58">
           <cell r="R58">
-            <v>16.63537475344091</v>
+            <v>15.937032036162622</v>
           </cell>
         </row>
         <row r="63">
           <cell r="R63">
-            <v>9.3413844995384382E-5</v>
+            <v>9.0620474126271213E-5</v>
           </cell>
         </row>
         <row r="64">
           <cell r="R64">
-            <v>0.22638620493345551</v>
+            <v>0.23336454659550679</v>
           </cell>
         </row>
         <row r="66">
           <cell r="R66">
-            <v>2.1789555897859274E-5</v>
+            <v>2.0392870463302686E-5</v>
           </cell>
         </row>
         <row r="67">
           <cell r="R67">
-            <v>3.0907581224333346E-5</v>
+            <v>2.9510895789776764E-5</v>
           </cell>
         </row>
         <row r="68">
           <cell r="R68">
-            <v>4.5764130492239956E-5</v>
+            <v>4.4367445057683372E-5</v>
           </cell>
         </row>
         <row r="69">
           <cell r="R69">
-            <v>1.7431644718287417E-5</v>
+            <v>1.6314296370642149E-5</v>
           </cell>
         </row>
         <row r="70">
           <cell r="R70">
-            <v>2.4726064979466676E-5</v>
+            <v>2.3608716631821412E-5</v>
           </cell>
         </row>
         <row r="71">
           <cell r="R71">
-            <v>3.6611304393791964E-5</v>
+            <v>3.5493956046146703E-5</v>
           </cell>
         </row>
         <row r="72">
           <cell r="R72">
-            <v>14.727211665743539</v>
+            <v>14.168537491920908</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="R77">
+            <v>3.6218228873642784E-4</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="R78">
+            <v>0.26859123144983488</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="R80">
+            <v>0.61178611389908066</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="R81">
+            <v>0.88532687369330287</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="R82">
+            <v>0.40785740926605374</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="R83">
+            <v>0.59021791579553518</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="R84">
+            <v>10.684203010971698</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="R86">
+            <v>13.487898272491385</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="R89">
+            <v>115.92309617457708</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="R90">
+            <v>115.88803411560743</v>
           </cell>
         </row>
         <row r="96">
           <cell r="R96">
-            <v>2.166148835302406E-4</v>
+            <v>2.0823477092290108E-4</v>
           </cell>
         </row>
         <row r="97">
           <cell r="R97">
-            <v>8.23678417651203</v>
+            <v>7.8177785461450551</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1326,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,15 +1433,15 @@
       <c r="F2" s="25"/>
       <c r="G2" s="14">
         <f>$K$2*35/60</f>
-        <v>15.252689128501489</v>
+        <v>14.275009324311879</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>[1]Summary!$G$47</f>
         <v>Operator cost/hour</v>
       </c>
       <c r="K2" s="16">
-        <f>[2]Summary!$J$44+[2]Summary!$J$43</f>
-        <v>26.147467077431124</v>
+        <f>[2]Summary!$J$43+[2]Summary!$J$42</f>
+        <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1409,7 +1459,7 @@
       </c>
       <c r="E3" s="14">
         <f>$K$2*0.25/60</f>
-        <v>0.10894777948929635</v>
+        <v>0.10196435231651343</v>
       </c>
       <c r="G3" s="14">
         <f>E3*F3</f>
@@ -1420,8 +1470,8 @@
         <v>Technician cost/hour</v>
       </c>
       <c r="K3" s="16">
-        <f>[2]Summary!$J$45+[2]Summary!$J$43</f>
-        <v>37.089097469200013</v>
+        <f>[2]Summary!$J$44+[2]Summary!$J$42</f>
+        <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1439,7 +1489,7 @@
       </c>
       <c r="E4" s="14">
         <f>$K$2*0.5/60</f>
-        <v>0.2178955589785927</v>
+        <v>0.20392870463302687</v>
       </c>
       <c r="G4" s="14">
         <f>E4*F4</f>
@@ -1450,8 +1500,8 @@
         <v>Welder cost/hour</v>
       </c>
       <c r="K4" s="16">
-        <f>[2]Summary!$J$46+[2]Summary!$J$43</f>
-        <v>43.232746064372158</v>
+        <f>[2]Summary!$J$45+[2]Summary!$J$42</f>
+        <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1469,15 +1519,15 @@
       <c r="F5" s="25"/>
       <c r="G5" s="14">
         <f>$K$2*15/60</f>
-        <v>6.5368667693577809</v>
+        <v>6.117861138990806</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>[1]Summary!$G$50</f>
         <v>Engineer cost/hour</v>
       </c>
       <c r="K5" s="16">
-        <f>[2]Summary!$J$47+[2]Summary!$J$43</f>
-        <v>54.916956590687946</v>
+        <f>[2]Summary!$J$46+[2]Summary!$J$42</f>
+        <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1495,9 +1545,9 @@
       <c r="F6" s="25"/>
       <c r="G6" s="14">
         <f>$K$2*10/60</f>
-        <v>4.3579111795718539</v>
-      </c>
-      <c r="K6" s="29"/>
+        <v>4.0785740926605367</v>
+      </c>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1514,7 +1564,7 @@
       <c r="F7" s="25"/>
       <c r="G7" s="14">
         <f>$K$2*15/60</f>
-        <v>6.5368667693577809</v>
+        <v>6.117861138990806</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1532,7 +1582,7 @@
       <c r="F8" s="25"/>
       <c r="G8" s="14">
         <f>$K$2*30/60</f>
-        <v>13.073733538715562</v>
+        <v>12.235722277981612</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1550,7 +1600,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="14">
         <f>$K$2*5/60</f>
-        <v>2.178955589785927</v>
+        <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1568,7 +1618,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="14">
         <f>$K$2*2*10/60</f>
-        <v>8.7158223591437078</v>
+        <v>8.1571481853210734</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1586,7 +1636,7 @@
       </c>
       <c r="E11" s="14">
         <f>$K$2*0.25/60</f>
-        <v>0.10894777948929635</v>
+        <v>0.10196435231651343</v>
       </c>
       <c r="G11" s="14">
         <f>E11*F11</f>
@@ -1608,7 +1658,7 @@
       </c>
       <c r="E12" s="14">
         <f>$K$2*0.5/60</f>
-        <v>0.2178955589785927</v>
+        <v>0.20392870463302687</v>
       </c>
       <c r="G12" s="14">
         <f>E12*F12</f>
@@ -1630,7 +1680,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="14">
         <f>$K$2*5/60</f>
-        <v>2.178955589785927</v>
+        <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1648,7 +1698,7 @@
       <c r="F14" s="25"/>
       <c r="G14" s="14">
         <f>$K$2*10/60</f>
-        <v>4.3579111795718539</v>
+        <v>4.0785740926605367</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1666,7 +1716,7 @@
       <c r="F15" s="25"/>
       <c r="G15" s="14">
         <f t="shared" ref="G15:G16" si="0">$K$2*5/60</f>
-        <v>2.178955589785927</v>
+        <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1684,7 +1734,7 @@
       <c r="F16" s="25"/>
       <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>2.178955589785927</v>
+        <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1702,7 +1752,7 @@
       </c>
       <c r="E17" s="14">
         <f>$K$2*1/60</f>
-        <v>0.43579111795718539</v>
+        <v>0.40785740926605374</v>
       </c>
       <c r="G17" s="14">
         <f>F17*E17</f>
@@ -1722,7 +1772,7 @@
       </c>
       <c r="E18" s="14">
         <f>$K$2*0.25/60</f>
-        <v>0.10894777948929635</v>
+        <v>0.10196435231651343</v>
       </c>
       <c r="G18" s="14">
         <f>F18*E18</f>
@@ -1744,7 +1794,7 @@
       </c>
       <c r="E19" s="14">
         <f t="shared" ref="E19" si="1">$K$2*1/60</f>
-        <v>0.43579111795718539</v>
+        <v>0.40785740926605374</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" ref="G19:G20" si="2">F19*E19</f>
@@ -1766,7 +1816,7 @@
       </c>
       <c r="E20" s="14">
         <f>$K$2*5/60</f>
-        <v>2.178955589785927</v>
+        <v>2.0392870463302684</v>
       </c>
       <c r="G20" s="14">
         <f t="shared" si="2"/>
@@ -1785,7 +1835,7 @@
       </c>
       <c r="E21" s="14">
         <f>$K$2*0.5/60</f>
-        <v>0.2178955589785927</v>
+        <v>0.20392870463302687</v>
       </c>
       <c r="G21" s="14">
         <f>E21*F21</f>
@@ -1804,7 +1854,7 @@
       </c>
       <c r="E22" s="14">
         <f t="shared" ref="E22:E23" si="3">$K$2*0.5/60</f>
-        <v>0.2178955589785927</v>
+        <v>0.20392870463302687</v>
       </c>
       <c r="G22" s="14">
         <f t="shared" ref="G22:G23" si="4">E22*F22</f>
@@ -1823,7 +1873,7 @@
       </c>
       <c r="E23" s="14">
         <f t="shared" si="3"/>
-        <v>0.2178955589785927</v>
+        <v>0.20392870463302687</v>
       </c>
       <c r="G23" s="14">
         <f t="shared" si="4"/>
@@ -1885,7 +1935,7 @@
       </c>
       <c r="D2" s="14">
         <f>K2*5/60</f>
-        <v>2.178955589785927</v>
+        <v>2.0392870463302684</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>Assembly!J2</f>
@@ -1893,7 +1943,7 @@
       </c>
       <c r="K2" s="17">
         <f>Assembly!K2</f>
-        <v>26.147467077431124</v>
+        <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1908,7 +1958,7 @@
       </c>
       <c r="D3" s="14">
         <f>K4*5/60</f>
-        <v>3.6027288386976797</v>
+        <v>3.4630602952420215</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>Assembly!J3</f>
@@ -1916,7 +1966,7 @@
       </c>
       <c r="K3" s="17">
         <f>Assembly!K3</f>
-        <v>37.089097469200013</v>
+        <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1931,7 +1981,7 @@
       </c>
       <c r="D4" s="14">
         <f>$K$2*15/60</f>
-        <v>6.5368667693577809</v>
+        <v>6.117861138990806</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>Assembly!J4</f>
@@ -1939,7 +1989,7 @@
       </c>
       <c r="K4" s="17">
         <f>Assembly!K4</f>
-        <v>43.232746064372158</v>
+        <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1954,7 +2004,7 @@
       </c>
       <c r="D5" s="14">
         <f>$K$2*15/60</f>
-        <v>6.5368667693577809</v>
+        <v>6.117861138990806</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>Assembly!J5</f>
@@ -1962,7 +2012,7 @@
       </c>
       <c r="K5" s="17">
         <f>Assembly!K5</f>
-        <v>54.916956590687946</v>
+        <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -1977,7 +2027,7 @@
       </c>
       <c r="D6" s="14">
         <f>$K$2*15/60</f>
-        <v>6.5368667693577809</v>
+        <v>6.117861138990806</v>
       </c>
     </row>
   </sheetData>
@@ -2033,7 +2083,7 @@
       </c>
       <c r="D2" s="14">
         <f>$K$2*10/60</f>
-        <v>4.3579111795718539</v>
+        <v>4.0785740926605367</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>Assembly!J2</f>
@@ -2041,7 +2091,7 @@
       </c>
       <c r="K2" s="17">
         <f>Assembly!K2</f>
-        <v>26.147467077431124</v>
+        <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2056,7 +2106,7 @@
       </c>
       <c r="D3" s="14">
         <f>$K$2*10/60</f>
-        <v>4.3579111795718539</v>
+        <v>4.0785740926605367</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>Assembly!J3</f>
@@ -2064,7 +2114,7 @@
       </c>
       <c r="K3" s="17">
         <f>Assembly!K3</f>
-        <v>37.089097469200013</v>
+        <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2074,7 +2124,7 @@
       </c>
       <c r="K4" s="17">
         <f>Assembly!K4</f>
-        <v>43.232746064372158</v>
+        <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2084,7 +2134,7 @@
       </c>
       <c r="K5" s="17">
         <f>Assembly!K5</f>
-        <v>54.916956590687946</v>
+        <v>53.240934069220046</v>
       </c>
     </row>
   </sheetData>
@@ -2096,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2145,7 +2195,7 @@
       <c r="J1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="31"/>
+      <c r="L1" s="30"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
@@ -2174,11 +2224,11 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
       <c r="L2" s="26"/>
-      <c r="M2" s="32"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
@@ -2193,9 +2243,9 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <f>([2]Summary!$R$63*[2]Summary!$R$64/E3+[2]Summary!$R$63*(1-[2]Summary!$R$64))*J3</f>
-        <v>9.3413844995384382E-5</v>
+        <v>9.0620474126271226E-5</v>
       </c>
       <c r="H3" s="21">
         <f t="shared" ref="H3:H6" si="0">G3*F3</f>
@@ -2209,11 +2259,11 @@
         <v>1</v>
       </c>
       <c r="L3" s="26"/>
-      <c r="M3" s="32"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="32"/>
       <c r="B4" t="s">
         <v>63</v>
       </c>
@@ -2226,9 +2276,9 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <f>([2]Summary!$R$49*[2]Summary!$R$50/E4 + [2]Summary!$R$49* (1 - [2]Summary!$R$50))*J4</f>
-        <v>1.0221339234709698E-4</v>
+        <v>9.9420021477983827E-5</v>
       </c>
       <c r="H4" s="21">
         <f t="shared" si="0"/>
@@ -2242,11 +2292,11 @@
         <v>1</v>
       </c>
       <c r="L4" s="26"/>
-      <c r="M4" s="32"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -2259,9 +2309,9 @@
         <v>39</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <f>[2]Summary!$R$96*J5</f>
-        <v>2.166148835302406E-4</v>
+        <v>2.0823477092290108E-4</v>
       </c>
       <c r="H5" s="21">
         <f t="shared" si="0"/>
@@ -2275,11 +2325,11 @@
         <v>1</v>
       </c>
       <c r="L5" s="26"/>
-      <c r="M5" s="32"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="26"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
@@ -2292,9 +2342,9 @@
         <v>39</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <f>[2]Summary!$R$96</f>
-        <v>2.166148835302406E-4</v>
+        <v>2.0823477092290108E-4</v>
       </c>
       <c r="H6" s="21">
         <f t="shared" si="0"/>
@@ -2312,7 +2362,7 @@
       <c r="N6" s="26"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
@@ -2324,14 +2374,14 @@
       <c r="E7" s="20"/>
       <c r="F7" s="14">
         <f>[2]Summary!$R$72</f>
-        <v>14.727211665743539</v>
+        <v>14.168537491920908</v>
       </c>
       <c r="G7" t="s">
         <v>67</v>
       </c>
       <c r="H7" s="21">
         <f>F7</f>
-        <v>14.727211665743539</v>
+        <v>14.168537491920908</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -2340,7 +2390,7 @@
       <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="32"/>
       <c r="B8" t="s">
         <v>70</v>
       </c>
@@ -2350,14 +2400,14 @@
       <c r="E8" s="20"/>
       <c r="F8" s="14">
         <f>[2]Summary!$R$97</f>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="G8" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="21">
         <f t="shared" ref="H8:H14" si="2">F8</f>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -2366,7 +2416,7 @@
       <c r="N8" s="26"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -2376,20 +2426,20 @@
       <c r="E9" s="20"/>
       <c r="F9" s="14">
         <f>[2]Summary!$R$58</f>
-        <v>16.63537475344091</v>
+        <v>15.937032036162622</v>
       </c>
       <c r="G9" t="s">
         <v>67</v>
       </c>
       <c r="H9" s="21">
         <f t="shared" si="2"/>
-        <v>16.63537475344091</v>
+        <v>15.937032036162622</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B10" t="s">
@@ -2401,20 +2451,20 @@
       <c r="E10" s="20"/>
       <c r="F10" s="14">
         <f>[2]Summary!$R$97</f>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
       </c>
       <c r="H10" s="21">
         <f t="shared" si="2"/>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
@@ -2426,20 +2476,20 @@
       <c r="E11" s="20"/>
       <c r="F11" s="14">
         <f>[2]Summary!$R$72</f>
-        <v>14.727211665743539</v>
+        <v>14.168537491920908</v>
       </c>
       <c r="G11" t="s">
         <v>67</v>
       </c>
       <c r="H11" s="21">
         <f t="shared" si="2"/>
-        <v>14.727211665743539</v>
+        <v>14.168537491920908</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="32"/>
       <c r="B12" t="s">
         <v>70</v>
       </c>
@@ -2449,20 +2499,20 @@
       <c r="E12" s="20"/>
       <c r="F12" s="14">
         <f>[2]Summary!$R$97</f>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="G12" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="21">
         <f t="shared" si="2"/>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="32"/>
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -2472,20 +2522,20 @@
       <c r="E13" s="20"/>
       <c r="F13" s="14">
         <f>[2]Summary!$R$58</f>
-        <v>16.63537475344091</v>
+        <v>15.937032036162622</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" s="21">
         <f t="shared" si="2"/>
-        <v>16.63537475344091</v>
+        <v>15.937032036162622</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B14" t="s">
@@ -2497,20 +2547,20 @@
       <c r="E14" s="20"/>
       <c r="F14" s="14">
         <f>[2]Summary!$R$97</f>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="G14" t="s">
         <v>67</v>
       </c>
       <c r="H14" s="21">
         <f t="shared" si="2"/>
-        <v>8.23678417651203</v>
+        <v>7.8177785461450551</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -2525,9 +2575,9 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <f>[2]Summary!$R$69/E15</f>
-        <v>1.7431644718287417E-5</v>
+        <v>1.6314296370642149E-5</v>
       </c>
       <c r="H15" s="21">
         <f>G15*F15</f>
@@ -2537,7 +2587,7 @@
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2550,9 +2600,9 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <f>[2]Summary!$R$70/E16</f>
-        <v>2.4726064979466676E-5</v>
+        <v>2.3608716631821412E-5</v>
       </c>
       <c r="H16" s="21">
         <f>G16*F16</f>
@@ -2562,7 +2612,7 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="19" t="s">
         <v>75</v>
       </c>
@@ -2575,19 +2625,19 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <f>[2]Summary!$R$71/E17</f>
-        <v>3.6611304393791964E-5</v>
+        <v>3.5493956046146703E-5</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" ref="H16:H28" si="3">G17*F17</f>
+        <f t="shared" ref="H17:H28" si="3">G17*F17</f>
         <v>0</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
+      <c r="A18" s="32"/>
       <c r="B18" t="s">
         <v>77</v>
       </c>
@@ -2600,9 +2650,9 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <f>[2]Summary!$R$55/E18</f>
-        <v>1.7431644718287417E-5</v>
+        <v>1.6314296370642149E-5</v>
       </c>
       <c r="H18" s="21">
         <f t="shared" si="3"/>
@@ -2612,7 +2662,7 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
+      <c r="A19" s="32"/>
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -2625,9 +2675,9 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <f>[2]Summary!$R$56/E19</f>
-        <v>2.4726064979466676E-5</v>
+        <v>2.3608716631821412E-5</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" si="3"/>
@@ -2637,7 +2687,7 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B20" t="s">
@@ -2652,9 +2702,9 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <f>[2]Summary!$R$57/E20</f>
-        <v>3.6611304393791964E-5</v>
+        <v>3.5493956046146703E-5</v>
       </c>
       <c r="H20" s="21">
         <f t="shared" si="3"/>
@@ -2664,7 +2714,7 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -2679,9 +2729,9 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <f>[2]Summary!$R$66/E21</f>
-        <v>2.1789555897859274E-5</v>
+        <v>2.0392870463302686E-5</v>
       </c>
       <c r="H21" s="21">
         <f t="shared" si="3"/>
@@ -2691,7 +2741,7 @@
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="19" t="s">
         <v>74</v>
       </c>
@@ -2704,9 +2754,9 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <f>[2]Summary!$R$67/E22</f>
-        <v>3.0907581224333346E-5</v>
+        <v>2.9510895789776764E-5</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="3"/>
@@ -2716,7 +2766,7 @@
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="19" t="s">
         <v>75</v>
       </c>
@@ -2729,9 +2779,9 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <f>[2]Summary!$R$68/E23</f>
-        <v>4.5764130492239956E-5</v>
+        <v>4.4367445057683372E-5</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="3"/>
@@ -2741,7 +2791,7 @@
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
+      <c r="A24" s="32"/>
       <c r="B24" t="s">
         <v>77</v>
       </c>
@@ -2754,9 +2804,9 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="29">
         <f>[2]Summary!$R$52/E24</f>
-        <v>2.1789555897859274E-5</v>
+        <v>2.0392870463302686E-5</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="3"/>
@@ -2766,7 +2816,7 @@
       <c r="J24" s="20"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
+      <c r="A25" s="32"/>
       <c r="B25" t="s">
         <v>78</v>
       </c>
@@ -2779,9 +2829,9 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <f>[2]Summary!$R$53/E25</f>
-        <v>3.0907581224333346E-5</v>
+        <v>2.9510895789776764E-5</v>
       </c>
       <c r="H25" s="21">
         <f t="shared" si="3"/>
@@ -2791,7 +2841,7 @@
       <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
+      <c r="A26" s="32"/>
       <c r="B26" t="s">
         <v>79</v>
       </c>
@@ -2804,9 +2854,9 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <f>[2]Summary!$R$54/E26</f>
-        <v>4.5764130492239956E-5</v>
+        <v>4.4367445057683372E-5</v>
       </c>
       <c r="H26" s="21">
         <f t="shared" si="3"/>
@@ -2920,7 +2970,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2989,7 +3039,7 @@
       <c r="E2" s="20"/>
       <c r="F2" s="14">
         <f>M2*5/60</f>
-        <v>2.178955589785927</v>
+        <v>2.0392870463302684</v>
       </c>
       <c r="H2" s="21">
         <f>F2*G2</f>
@@ -3003,7 +3053,7 @@
       </c>
       <c r="M2" s="17">
         <f>Assembly!K2</f>
-        <v>26.147467077431124</v>
+        <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3026,7 +3076,7 @@
       </c>
       <c r="M3" s="17">
         <f>Assembly!K3</f>
-        <v>37.089097469200013</v>
+        <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -3039,13 +3089,23 @@
       <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29">
+        <f>([2]Summary!$R$77*[2]Summary!$R$78/E4+[2]Summary!$R$77*(1-[2]Summary!$R$78))*J4</f>
+        <v>3.6218228873642784E-4</v>
+      </c>
+      <c r="H4" s="21">
+        <f>G4*F4</f>
+        <v>0</v>
+      </c>
       <c r="I4" t="s">
         <v>97</v>
       </c>
       <c r="J4">
         <f>VLOOKUP(I4,$A$13:$B$14,2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="str">
         <f>Assembly!J4</f>
@@ -3053,7 +3113,7 @@
       </c>
       <c r="M4" s="17">
         <f>Assembly!K4</f>
-        <v>43.232746064372158</v>
+        <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -3064,7 +3124,17 @@
         <v>39</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="14">
+        <f>[2]Summary!$R$84</f>
+        <v>10.684203010971698</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="21">
+        <f>F5</f>
+        <v>10.684203010971698</v>
+      </c>
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
       <c r="L5" s="1" t="str">
@@ -3073,11 +3143,11 @@
       </c>
       <c r="M5" s="17">
         <f>Assembly!K5</f>
-        <v>54.916956590687946</v>
+        <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B6" t="s">
@@ -3087,12 +3157,19 @@
         <v>39</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="14">
+        <f>[2]Summary!$R$82</f>
+        <v>0.40785740926605374</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" ref="H5:H9" si="0">G6*F6</f>
+        <v>0</v>
+      </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
@@ -3102,12 +3179,19 @@
         <v>45</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="14">
+        <f>[2]Summary!$R$83</f>
+        <v>0.59021791579553518</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
@@ -3120,12 +3204,19 @@
         <v>39</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="14">
+        <f>[2]Summary!$R$80</f>
+        <v>0.61178611389908066</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
+      <c r="A9" s="32"/>
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -3136,7 +3227,14 @@
         <v>45</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="14">
+        <f>[2]Summary!$R$81</f>
+        <v>0.88532687369330287</v>
+      </c>
+      <c r="H9" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
@@ -3171,7 +3269,7 @@
         <v>98</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -3179,7 +3277,7 @@
         <v>97</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3201,7 +3299,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J1" sqref="J1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3256,7 +3354,7 @@
       </c>
       <c r="E2" s="14">
         <f>K2*2/60</f>
-        <v>0.87158223591437078</v>
+        <v>0.81571481853210748</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>Assembly!J2</f>
@@ -3264,7 +3362,7 @@
       </c>
       <c r="K2" s="17">
         <f>Assembly!K2</f>
-        <v>26.147467077431124</v>
+        <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3279,7 +3377,7 @@
       </c>
       <c r="E3" s="14">
         <f>K2*0.5/60</f>
-        <v>0.2178955589785927</v>
+        <v>0.20392870463302687</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>Assembly!J3</f>
@@ -3287,7 +3385,7 @@
       </c>
       <c r="K3" s="17">
         <f>Assembly!K3</f>
-        <v>37.089097469200013</v>
+        <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3303,7 +3401,7 @@
       </c>
       <c r="K4" s="17">
         <f>Assembly!K4</f>
-        <v>43.232746064372158</v>
+        <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3322,7 +3420,7 @@
       </c>
       <c r="K5" s="17">
         <f>Assembly!K5</f>
-        <v>54.916956590687946</v>
+        <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3340,10 +3438,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3353,9 +3451,10 @@
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -3374,9 +3473,13 @@
       <c r="F1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="J1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B2" t="s">
@@ -3385,26 +3488,50 @@
       <c r="C2" t="s">
         <v>114</v>
       </c>
+      <c r="D2" s="28">
+        <f>([2]Summary!$R$86+[2]Summary!$J$45)*10/60</f>
+        <v>7.2102901289134502</v>
+      </c>
       <c r="F2" s="21">
         <f>D2*E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="J2" s="1" t="str">
+        <f>Assembly!J2</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="K2" s="17">
+        <f>Assembly!K2</f>
+        <v>24.471444555963224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
       <c r="B3" t="s">
         <v>112</v>
       </c>
       <c r="C3" t="s">
         <v>115</v>
       </c>
+      <c r="D3" s="28">
+        <f>([2]Summary!$R$86+[2]Summary!$J$45)*3</f>
+        <v>129.78522232044207</v>
+      </c>
       <c r="F3" s="21">
         <f t="shared" ref="F3:F5" si="0">D3*E3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="J3" s="1" t="str">
+        <f>Assembly!J3</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="K3" s="17">
+        <f>Assembly!K3</f>
+        <v>35.413074947732113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>116</v>
       </c>
       <c r="B4" t="s">
@@ -3413,22 +3540,46 @@
       <c r="C4" t="s">
         <v>108</v>
       </c>
+      <c r="D4" s="14">
+        <f>[2]Summary!$R$89/1000</f>
+        <v>0.11592309617457708</v>
+      </c>
       <c r="F4" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
+      <c r="J4" s="1" t="str">
+        <f>Assembly!J4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="K4" s="17">
+        <f>Assembly!K4</f>
+        <v>41.556723542904258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
       <c r="B5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>108</v>
       </c>
+      <c r="D5" s="28">
+        <f>[2]Summary!$R$90/1000</f>
+        <v>0.11588803411560743</v>
+      </c>
       <c r="F5" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>Assembly!J5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="K5" s="17">
+        <f>Assembly!K5</f>
+        <v>53.240934069220046</v>
       </c>
     </row>
   </sheetData>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -860,85 +859,39 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="47">
-          <cell r="G47" t="str">
-            <v>Operator cost/hour</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="G48" t="str">
-            <v>Technician cost/hour</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="G49" t="str">
-            <v>Welder cost/hour</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50" t="str">
-            <v>Engineer cost/hour</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Summary"/>
-      <sheetName val="Manpower &amp; time"/>
-      <sheetName val="Energies"/>
-      <sheetName val="Metrology"/>
-      <sheetName val="IT"/>
-      <sheetName val="Office"/>
-      <sheetName val="Manufacturing"/>
-      <sheetName val="CNC mill"/>
-      <sheetName val="CNC lathe"/>
-      <sheetName val="Laser cutter"/>
-      <sheetName val="Welding"/>
-      <sheetName val="Conventionnal machinning"/>
-      <sheetName val="Material"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
         <row r="42">
           <cell r="J42">
             <v>11.782881041914944</v>
           </cell>
         </row>
         <row r="43">
+          <cell r="G43" t="str">
+            <v>Operator cost/hour</v>
+          </cell>
           <cell r="J43">
             <v>12.68856351404828</v>
           </cell>
         </row>
         <row r="44">
+          <cell r="G44" t="str">
+            <v>Technician cost/hour</v>
+          </cell>
           <cell r="J44">
             <v>23.630193905817173</v>
           </cell>
         </row>
         <row r="45">
+          <cell r="G45" t="str">
+            <v>Welder cost/hour</v>
+          </cell>
           <cell r="J45">
             <v>29.773842500989314</v>
           </cell>
         </row>
         <row r="46">
+          <cell r="G46" t="str">
+            <v>Engineer cost/hour</v>
+          </cell>
           <cell r="J46">
             <v>41.458053027305105</v>
           </cell>
@@ -1376,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,11 +1389,11 @@
         <v>14.275009324311879</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>[1]Summary!$G$47</f>
+        <f>[1]Summary!$G$43</f>
         <v>Operator cost/hour</v>
       </c>
       <c r="K2" s="16">
-        <f>[2]Summary!$J$43+[2]Summary!$J$42</f>
+        <f>[1]Summary!$J$43+[1]Summary!$J$42</f>
         <v>24.471444555963224</v>
       </c>
     </row>
@@ -1466,11 +1419,11 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>[1]Summary!$G$48</f>
+        <f>[1]Summary!$G$44</f>
         <v>Technician cost/hour</v>
       </c>
       <c r="K3" s="16">
-        <f>[2]Summary!$J$44+[2]Summary!$J$42</f>
+        <f>[1]Summary!$J$44+[1]Summary!$J$42</f>
         <v>35.413074947732113</v>
       </c>
     </row>
@@ -1496,11 +1449,11 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f>[1]Summary!$G$49</f>
+        <f>[1]Summary!$G$45</f>
         <v>Welder cost/hour</v>
       </c>
       <c r="K4" s="16">
-        <f>[2]Summary!$J$45+[2]Summary!$J$42</f>
+        <f>[1]Summary!$J$45+[1]Summary!$J$42</f>
         <v>41.556723542904258</v>
       </c>
     </row>
@@ -1522,11 +1475,11 @@
         <v>6.117861138990806</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f>[1]Summary!$G$50</f>
+        <f>[1]Summary!$G$46</f>
         <v>Engineer cost/hour</v>
       </c>
       <c r="K5" s="16">
-        <f>[2]Summary!$J$46+[2]Summary!$J$42</f>
+        <f>[1]Summary!$J$46+[1]Summary!$J$42</f>
         <v>53.240934069220046</v>
       </c>
     </row>
@@ -2244,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="29">
-        <f>([2]Summary!$R$63*[2]Summary!$R$64/E3+[2]Summary!$R$63*(1-[2]Summary!$R$64))*J3</f>
+        <f>([1]Summary!$R$63*[1]Summary!$R$64/E3+[1]Summary!$R$63*(1-[1]Summary!$R$64))*J3</f>
         <v>9.0620474126271226E-5</v>
       </c>
       <c r="H3" s="21">
@@ -2277,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="29">
-        <f>([2]Summary!$R$49*[2]Summary!$R$50/E4 + [2]Summary!$R$49* (1 - [2]Summary!$R$50))*J4</f>
+        <f>([1]Summary!$R$49*[1]Summary!$R$50/E4 + [1]Summary!$R$49* (1 - [1]Summary!$R$50))*J4</f>
         <v>9.9420021477983827E-5</v>
       </c>
       <c r="H4" s="21">
@@ -2310,7 +2263,7 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="29">
-        <f>[2]Summary!$R$96*J5</f>
+        <f>[1]Summary!$R$96*J5</f>
         <v>2.0823477092290108E-4</v>
       </c>
       <c r="H5" s="21">
@@ -2343,7 +2296,7 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="29">
-        <f>[2]Summary!$R$96</f>
+        <f>[1]Summary!$R$96</f>
         <v>2.0823477092290108E-4</v>
       </c>
       <c r="H6" s="21">
@@ -2373,7 +2326,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="14">
-        <f>[2]Summary!$R$72</f>
+        <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
       </c>
       <c r="G7" t="s">
@@ -2399,7 +2352,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="14">
-        <f>[2]Summary!$R$97</f>
+        <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G8" t="s">
@@ -2425,7 +2378,7 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="14">
-        <f>[2]Summary!$R$58</f>
+        <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
       </c>
       <c r="G9" t="s">
@@ -2450,7 +2403,7 @@
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="14">
-        <f>[2]Summary!$R$97</f>
+        <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G10" t="s">
@@ -2475,7 +2428,7 @@
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="14">
-        <f>[2]Summary!$R$72</f>
+        <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
       </c>
       <c r="G11" t="s">
@@ -2498,7 +2451,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="14">
-        <f>[2]Summary!$R$97</f>
+        <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G12" t="s">
@@ -2521,7 +2474,7 @@
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="14">
-        <f>[2]Summary!$R$58</f>
+        <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
       </c>
       <c r="G13" t="s">
@@ -2546,7 +2499,7 @@
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="14">
-        <f>[2]Summary!$R$97</f>
+        <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G14" t="s">
@@ -2576,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="29">
-        <f>[2]Summary!$R$69/E15</f>
+        <f>[1]Summary!$R$69/E15</f>
         <v>1.6314296370642149E-5</v>
       </c>
       <c r="H15" s="21">
@@ -2601,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="29">
-        <f>[2]Summary!$R$70/E16</f>
+        <f>[1]Summary!$R$70/E16</f>
         <v>2.3608716631821412E-5</v>
       </c>
       <c r="H16" s="21">
@@ -2626,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="29">
-        <f>[2]Summary!$R$71/E17</f>
+        <f>[1]Summary!$R$71/E17</f>
         <v>3.5493956046146703E-5</v>
       </c>
       <c r="H17" s="21">
@@ -2651,7 +2604,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="29">
-        <f>[2]Summary!$R$55/E18</f>
+        <f>[1]Summary!$R$55/E18</f>
         <v>1.6314296370642149E-5</v>
       </c>
       <c r="H18" s="21">
@@ -2676,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="29">
-        <f>[2]Summary!$R$56/E19</f>
+        <f>[1]Summary!$R$56/E19</f>
         <v>2.3608716631821412E-5</v>
       </c>
       <c r="H19" s="21">
@@ -2703,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="29">
-        <f>[2]Summary!$R$57/E20</f>
+        <f>[1]Summary!$R$57/E20</f>
         <v>3.5493956046146703E-5</v>
       </c>
       <c r="H20" s="21">
@@ -2730,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="29">
-        <f>[2]Summary!$R$66/E21</f>
+        <f>[1]Summary!$R$66/E21</f>
         <v>2.0392870463302686E-5</v>
       </c>
       <c r="H21" s="21">
@@ -2755,7 +2708,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="29">
-        <f>[2]Summary!$R$67/E22</f>
+        <f>[1]Summary!$R$67/E22</f>
         <v>2.9510895789776764E-5</v>
       </c>
       <c r="H22" s="21">
@@ -2780,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="29">
-        <f>[2]Summary!$R$68/E23</f>
+        <f>[1]Summary!$R$68/E23</f>
         <v>4.4367445057683372E-5</v>
       </c>
       <c r="H23" s="21">
@@ -2805,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="29">
-        <f>[2]Summary!$R$52/E24</f>
+        <f>[1]Summary!$R$52/E24</f>
         <v>2.0392870463302686E-5</v>
       </c>
       <c r="H24" s="21">
@@ -2830,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="29">
-        <f>[2]Summary!$R$53/E25</f>
+        <f>[1]Summary!$R$53/E25</f>
         <v>2.9510895789776764E-5</v>
       </c>
       <c r="H25" s="21">
@@ -2855,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="29">
-        <f>[2]Summary!$R$54/E26</f>
+        <f>[1]Summary!$R$54/E26</f>
         <v>4.4367445057683372E-5</v>
       </c>
       <c r="H26" s="21">
@@ -3093,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="29">
-        <f>([2]Summary!$R$77*[2]Summary!$R$78/E4+[2]Summary!$R$77*(1-[2]Summary!$R$78))*J4</f>
+        <f>([1]Summary!$R$77*[1]Summary!$R$78/E4+[1]Summary!$R$77*(1-[1]Summary!$R$78))*J4</f>
         <v>3.6218228873642784E-4</v>
       </c>
       <c r="H4" s="21">
@@ -3125,7 +3078,7 @@
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="14">
-        <f>[2]Summary!$R$84</f>
+        <f>[1]Summary!$R$84</f>
         <v>10.684203010971698</v>
       </c>
       <c r="G5" t="s">
@@ -3158,11 +3111,11 @@
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="14">
-        <f>[2]Summary!$R$82</f>
+        <f>[1]Summary!$R$82</f>
         <v>0.40785740926605374</v>
       </c>
       <c r="H6" s="21">
-        <f t="shared" ref="H5:H9" si="0">G6*F6</f>
+        <f t="shared" ref="H6:H9" si="0">G6*F6</f>
         <v>0</v>
       </c>
       <c r="I6" s="20"/>
@@ -3180,7 +3133,7 @@
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="14">
-        <f>[2]Summary!$R$83</f>
+        <f>[1]Summary!$R$83</f>
         <v>0.59021791579553518</v>
       </c>
       <c r="H7" s="21">
@@ -3205,7 +3158,7 @@
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="14">
-        <f>[2]Summary!$R$80</f>
+        <f>[1]Summary!$R$80</f>
         <v>0.61178611389908066</v>
       </c>
       <c r="H8" s="21">
@@ -3228,7 +3181,7 @@
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="14">
-        <f>[2]Summary!$R$81</f>
+        <f>[1]Summary!$R$81</f>
         <v>0.88532687369330287</v>
       </c>
       <c r="H9" s="21">
@@ -3440,7 +3393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3489,7 +3442,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="28">
-        <f>([2]Summary!$R$86+[2]Summary!$J$45)*10/60</f>
+        <f>([1]Summary!$R$86+[1]Summary!$J$45)*10/60</f>
         <v>7.2102901289134502</v>
       </c>
       <c r="F2" s="21">
@@ -3514,7 +3467,7 @@
         <v>115</v>
       </c>
       <c r="D3" s="28">
-        <f>([2]Summary!$R$86+[2]Summary!$J$45)*3</f>
+        <f>([1]Summary!$R$86+[1]Summary!$J$45)*3</f>
         <v>129.78522232044207</v>
       </c>
       <c r="F3" s="21">
@@ -3541,7 +3494,7 @@
         <v>108</v>
       </c>
       <c r="D4" s="14">
-        <f>[2]Summary!$R$89/1000</f>
+        <f>[1]Summary!$R$89/1000</f>
         <v>0.11592309617457708</v>
       </c>
       <c r="F4" s="21">
@@ -3566,7 +3519,7 @@
         <v>108</v>
       </c>
       <c r="D5" s="28">
-        <f>[2]Summary!$R$90/1000</f>
+        <f>[1]Summary!$R$90/1000</f>
         <v>0.11588803411560743</v>
       </c>
       <c r="F5" s="21">

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Assembly of exhaust system</t>
-  </si>
-  <si>
     <t>By who ?</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>nbr of ligarex</t>
+  </si>
+  <si>
+    <t>Assembly of one y of exhaust system or muffler</t>
   </si>
 </sst>
 </file>
@@ -796,31 +796,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1329,13 +1331,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="45.21875" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
@@ -1345,76 +1347,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>40</v>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="B2" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C2" s="25"/>
-      <c r="D2" t="s">
-        <v>39</v>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="14">
-        <f>$K$2*35/60</f>
-        <v>14.275009324311879</v>
+      <c r="G2" s="15">
+        <f>$K$2*6/60</f>
+        <v>2.4471444555963227</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>[1]Summary!$G$43</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <f>[1]Summary!$J$43+[1]Summary!$J$42</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="15">
         <f>$K$2*0.25/60</f>
         <v>0.10196435231651343</v>
       </c>
-      <c r="G3" s="14">
+      <c r="F3" s="1"/>
+      <c r="G3" s="15">
         <f>E3*F3</f>
         <v>0</v>
       </c>
@@ -1422,29 +1425,30 @@
         <f>[1]Summary!$G$44</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f>[1]Summary!$J$44+[1]Summary!$J$42</f>
         <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="15">
         <f>$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="G4" s="14">
+      <c r="F4" s="1"/>
+      <c r="G4" s="15">
         <f>E4*F4</f>
         <v>0</v>
       </c>
@@ -1452,25 +1456,25 @@
         <f>[1]Summary!$G$45</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <f>[1]Summary!$J$45+[1]Summary!$J$42</f>
         <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>127</v>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C5" s="25"/>
-      <c r="D5" t="s">
-        <v>39</v>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="14">
+      <c r="G5" s="15">
         <f>$K$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
@@ -1478,357 +1482,369 @@
         <f>[1]Summary!$G$46</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <f>[1]Summary!$J$46+[1]Summary!$J$42</f>
         <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>128</v>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" t="s">
-        <v>39</v>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="14">
+      <c r="G6" s="15">
         <f>$K$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
-      <c r="K6" s="28"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>129</v>
+      <c r="B7" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" t="s">
-        <v>39</v>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <f>$K$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>130</v>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" t="s">
-        <v>39</v>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="14">
+      <c r="G8" s="15">
         <f>$K$2*30/60</f>
         <v>12.235722277981612</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>131</v>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C9" s="25"/>
-      <c r="D9" t="s">
-        <v>39</v>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="14">
+      <c r="G9" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>132</v>
+      <c r="B10" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="C10" s="25"/>
-      <c r="D10" t="s">
-        <v>39</v>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="14">
+      <c r="G10" s="15">
         <f>$K$2*2*10/60</f>
         <v>8.1571481853210734</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="14">
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="15">
         <f>$K$2*0.25/60</f>
         <v>0.10196435231651343</v>
       </c>
-      <c r="G11" s="14">
+      <c r="F11" s="1"/>
+      <c r="G11" s="15">
         <f>E11*F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="14">
+      <c r="B12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="15">
         <f>$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="G12" s="14">
+      <c r="F12" s="1"/>
+      <c r="G12" s="15">
         <f>E12*F12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>137</v>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" t="s">
-        <v>39</v>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="14">
+      <c r="G13" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>136</v>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="C14" s="25"/>
-      <c r="D14" t="s">
-        <v>39</v>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="14">
+      <c r="G14" s="15">
         <f>$K$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26" t="s">
-        <v>138</v>
+      <c r="B15" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" t="s">
-        <v>39</v>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
-      <c r="G15" s="14">
+      <c r="G15" s="15">
         <f t="shared" ref="G15:G16" si="0">$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="25"/>
-      <c r="D16" t="s">
-        <v>39</v>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <f t="shared" si="0"/>
         <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="B17" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="15">
         <f>$K$2*1/60</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="G17" s="14">
+      <c r="F17" s="1"/>
+      <c r="G17" s="15">
         <f>F17*E17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="B18" s="26"/>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="15">
         <f>$K$2*0.25/60</f>
         <v>0.10196435231651343</v>
       </c>
-      <c r="G18" s="14">
+      <c r="F18" s="1"/>
+      <c r="G18" s="15">
         <f>F18*E18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="B19" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="15">
         <f t="shared" ref="E19" si="1">$K$2*1/60</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="G19" s="14">
+      <c r="F19" s="1"/>
+      <c r="G19" s="15">
         <f t="shared" ref="G19:G20" si="2">F19*E19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
-      <c r="G20" s="14">
+      <c r="F20" s="1"/>
+      <c r="G20" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="15">
         <f>$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="G21" s="14">
+      <c r="F21" s="1"/>
+      <c r="G21" s="15">
         <f>E21*F21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15">
         <f t="shared" ref="E22:E23" si="3">$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="G22" s="14">
+      <c r="F22" s="1"/>
+      <c r="G22" s="15">
         <f t="shared" ref="G22:G23" si="4">E22*F22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>120</v>
-      </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="A23" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="15">
         <f t="shared" si="3"/>
         <v>0.20392870463302687</v>
       </c>
-      <c r="G23" s="14">
+      <c r="F23" s="1"/>
+      <c r="G23" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1844,7 +1860,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1859,34 +1875,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="C1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="15">
         <f>K2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
@@ -1894,22 +1910,22 @@
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <f>Assembly!K2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="D3" s="15">
         <f>K4*5/60</f>
         <v>3.4630602952420215</v>
       </c>
@@ -1917,22 +1933,22 @@
         <f>Assembly!J3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <f>Assembly!K3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="15">
         <f>$K$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
@@ -1940,22 +1956,22 @@
         <f>Assembly!J4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <f>Assembly!K4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="14">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="15">
         <f>$K$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
@@ -1963,22 +1979,22 @@
         <f>Assembly!J5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <f>Assembly!K5</f>
         <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="14">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="15">
         <f>$K$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
@@ -1993,7 +2009,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2007,34 +2023,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="C1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="14">
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="15">
         <f>$K$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
@@ -2042,22 +2058,22 @@
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <f>Assembly!K2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="15">
         <f>$K$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
@@ -2065,7 +2081,7 @@
         <f>Assembly!J3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <f>Assembly!K3</f>
         <v>35.413074947732113</v>
       </c>
@@ -2075,7 +2091,7 @@
         <f>Assembly!J4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <f>Assembly!K4</f>
         <v>41.556723542904258</v>
       </c>
@@ -2085,7 +2101,7 @@
         <f>Assembly!J5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <f>Assembly!K5</f>
         <v>53.240934069220046</v>
       </c>
@@ -2099,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2109,7 +2125,7 @@
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
@@ -2118,767 +2134,794 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="15">
+        <f>M2*2/60</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="16">
+        <f>G2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="14">
-        <f>M2*2/60</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
-        <f>G2*F2</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="26"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="30">
         <f>([1]Summary!$R$63*[1]Summary!$R$64/E3+[1]Summary!$R$63*(1-[1]Summary!$R$64))*J3</f>
         <v>9.0620474126271226E-5</v>
       </c>
-      <c r="H3" s="21">
+      <c r="G3" s="1"/>
+      <c r="H3" s="16">
         <f t="shared" ref="H3:H6" si="0">G3*F3</f>
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="1">
         <f>VLOOKUP(I3,$A$32:$B$34,2)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="26"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="29"/>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <f>([1]Summary!$R$49*[1]Summary!$R$50/E4 + [1]Summary!$R$49* (1 - [1]Summary!$R$50))*J4</f>
         <v>9.9420021477983827E-5</v>
       </c>
-      <c r="H4" s="21">
+      <c r="G4" s="1"/>
+      <c r="H4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="1">
         <f t="shared" ref="J4:J6" si="1">VLOOKUP(I4,$A$32:$B$34,2)</f>
         <v>1</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="26"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="29">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30">
         <f>[1]Summary!$R$96*J5</f>
         <v>2.0823477092290108E-4</v>
       </c>
-      <c r="H5" s="21">
+      <c r="G5" s="1"/>
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="26"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="29">
+      <c r="A6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30">
         <f>[1]Summary!$R$96</f>
         <v>2.0823477092290108E-4</v>
       </c>
-      <c r="H6" s="21">
+      <c r="G6" s="1"/>
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="14">
+      <c r="A7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="15">
         <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
       </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="16">
         <f>F7</f>
         <v>14.168537491920908</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="14">
+      <c r="A8" s="29"/>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="16">
         <f t="shared" ref="H8:H14" si="2">F8</f>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="14">
+      <c r="A9" s="29"/>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="15">
         <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
       </c>
-      <c r="G9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="16">
         <f t="shared" si="2"/>
         <v>15.937032036162622</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="14">
+      <c r="A10" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="16">
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="14">
+      <c r="A11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="15">
         <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
       </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="21">
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="16">
         <f t="shared" si="2"/>
         <v>14.168537491920908</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="14">
+      <c r="A12" s="29"/>
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="16">
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="14">
+      <c r="A13" s="29"/>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="15">
         <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
       </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="16">
         <f t="shared" si="2"/>
         <v>15.937032036162622</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="14">
+      <c r="A14" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="16">
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15">
+      <c r="A15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="30">
         <f>[1]Summary!$R$69/E15</f>
         <v>1.6314296370642149E-5</v>
       </c>
-      <c r="H15" s="21">
+      <c r="G15" s="1"/>
+      <c r="H15" s="16">
         <f>G15*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
+      <c r="A16" s="29"/>
+      <c r="B16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="30">
         <f>[1]Summary!$R$70/E16</f>
         <v>2.3608716631821412E-5</v>
       </c>
-      <c r="H16" s="21">
+      <c r="G16" s="1"/>
+      <c r="H16" s="16">
         <f>G16*F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
-      <c r="B17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17">
+      <c r="A17" s="29"/>
+      <c r="B17" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="30">
         <f>[1]Summary!$R$71/E17</f>
         <v>3.5493956046146703E-5</v>
       </c>
-      <c r="H17" s="21">
+      <c r="G17" s="1"/>
+      <c r="H17" s="16">
         <f t="shared" ref="H17:H28" si="3">G17*F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
+      <c r="A18" s="29"/>
+      <c r="B18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="30">
         <f>[1]Summary!$R$55/E18</f>
         <v>1.6314296370642149E-5</v>
       </c>
-      <c r="H18" s="21">
+      <c r="G18" s="1"/>
+      <c r="H18" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19">
+      <c r="A19" s="29"/>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="30">
         <f>[1]Summary!$R$56/E19</f>
         <v>2.3608716631821412E-5</v>
       </c>
-      <c r="H19" s="21">
+      <c r="G19" s="1"/>
+      <c r="H19" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20">
+      <c r="A20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="30">
         <f>[1]Summary!$R$57/E20</f>
         <v>3.5493956046146703E-5</v>
       </c>
-      <c r="H20" s="21">
+      <c r="G20" s="1"/>
+      <c r="H20" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21">
+      <c r="A21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <f>[1]Summary!$R$66/E21</f>
         <v>2.0392870463302686E-5</v>
       </c>
-      <c r="H21" s="21">
+      <c r="G21" s="1"/>
+      <c r="H21" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22">
+      <c r="A22" s="29"/>
+      <c r="B22" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="30">
         <f>[1]Summary!$R$67/E22</f>
         <v>2.9510895789776764E-5</v>
       </c>
-      <c r="H22" s="21">
+      <c r="G22" s="1"/>
+      <c r="H22" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
-      <c r="B23" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23">
+      <c r="A23" s="29"/>
+      <c r="B23" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="30">
         <f>[1]Summary!$R$68/E23</f>
         <v>4.4367445057683372E-5</v>
       </c>
-      <c r="H23" s="21">
+      <c r="G23" s="1"/>
+      <c r="H23" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24">
+      <c r="A24" s="29"/>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="30">
         <f>[1]Summary!$R$52/E24</f>
         <v>2.0392870463302686E-5</v>
       </c>
-      <c r="H24" s="21">
+      <c r="G24" s="1"/>
+      <c r="H24" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="30">
         <f>[1]Summary!$R$53/E25</f>
         <v>2.9510895789776764E-5</v>
       </c>
-      <c r="H25" s="21">
+      <c r="G25" s="1"/>
+      <c r="H25" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26">
+      <c r="A26" s="29"/>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="30">
         <f>[1]Summary!$R$54/E26</f>
         <v>4.4367445057683372E-5</v>
       </c>
-      <c r="H26" s="21">
+      <c r="G26" s="1"/>
+      <c r="H26" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21">
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="16">
         <f>$M$2*5/60</f>
         <v>0</v>
       </c>
-      <c r="H27" s="21">
+      <c r="G27" s="1"/>
+      <c r="H27" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21">
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="16">
         <f>$M$2*2/60</f>
         <v>0</v>
       </c>
-      <c r="H28" s="21">
+      <c r="G28" s="1"/>
+      <c r="H28" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>95</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -2886,7 +2929,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1">
         <v>0.5</v>
@@ -2894,7 +2937,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1">
         <v>2.5</v>
@@ -2923,140 +2966,146 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" customWidth="1"/>
     <col min="9" max="9" width="9.21875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="12" max="12" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="I1" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>40</v>
+      <c r="J1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="14">
+      <c r="C2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="15">
         <f>M2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
-      <c r="H2" s="21">
+      <c r="G2" s="1"/>
+      <c r="H2" s="16">
         <f>F2*G2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="L2" s="1" t="str">
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="16">
         <f>Assembly!K2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="A3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="L3" s="1" t="str">
         <f>Assembly!J3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <f>Assembly!K3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <f>([1]Summary!$R$77*[1]Summary!$R$78/E4+[1]Summary!$R$77*(1-[1]Summary!$R$78))*J4</f>
         <v>3.6218228873642784E-4</v>
       </c>
-      <c r="H4" s="21">
+      <c r="G4" s="1"/>
+      <c r="H4" s="16">
         <f>G4*F4</f>
         <v>0</v>
       </c>
-      <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4">
+      <c r="I4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="1">
         <f>VLOOKUP(I4,$A$13:$B$14,2)</f>
         <v>1</v>
       </c>
@@ -3064,162 +3113,173 @@
         <f>Assembly!J4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <f>Assembly!K4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="14">
+      <c r="A5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="28"/>
+      <c r="F5" s="15">
         <f>[1]Summary!$R$84</f>
         <v>10.684203010971698</v>
       </c>
-      <c r="G5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="16">
         <f>F5</f>
         <v>10.684203010971698</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="L5" s="1" t="str">
         <f>Assembly!J5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <f>Assembly!K5</f>
         <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="14">
+      <c r="A6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="15">
         <f>[1]Summary!$R$82</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="H6" s="21">
+      <c r="G6" s="1"/>
+      <c r="H6" s="16">
         <f t="shared" ref="H6:H9" si="0">G6*F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="14">
+      <c r="A7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="15">
         <f>[1]Summary!$R$83</f>
         <v>0.59021791579553518</v>
       </c>
-      <c r="H7" s="21">
+      <c r="G7" s="1"/>
+      <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="14">
+      <c r="A8" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="15">
         <f>[1]Summary!$R$80</f>
         <v>0.61178611389908066</v>
       </c>
-      <c r="H8" s="21">
+      <c r="G8" s="1"/>
+      <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="14">
+      <c r="A9" s="29"/>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="15">
         <f>[1]Summary!$R$81</f>
         <v>0.88532687369330287</v>
       </c>
-      <c r="H9" s="21">
+      <c r="G9" s="1"/>
+      <c r="H9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="A10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="28"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>95</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1">
         <v>0.72</v>
@@ -3227,7 +3287,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -3252,7 +3312,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3260,128 +3320,163 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>40</v>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="14">
+      <c r="A2" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="15">
         <f>K2*2/60</f>
         <v>0.81571481853210748</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="15">
+        <f>F2*E2</f>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <f>Assembly!K2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="A3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="15">
         <f>K2*0.5/60</f>
         <v>0.20392870463302687</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="15">
+        <f t="shared" ref="G3:G6" si="0">F3*E3</f>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="str">
         <f>Assembly!J3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <f>Assembly!K3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="str">
         <f>Assembly!J4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <f>Assembly!K4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>Assembly!J5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <f>Assembly!K5</f>
         <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
+      <c r="A6" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3394,7 +3489,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3404,48 +3499,50 @@
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
     <col min="10" max="10" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>40</v>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="28">
+      <c r="D2" s="32">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*10/60</f>
         <v>7.2102901289134502</v>
       </c>
-      <c r="F2" s="21">
+      <c r="E2" s="1"/>
+      <c r="F2" s="16">
         <f>D2*E2</f>
         <v>0</v>
       </c>
@@ -3453,24 +3550,25 @@
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="16">
         <f>Assembly!K2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="A3" s="29"/>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="32">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*3</f>
         <v>129.78522232044207</v>
       </c>
-      <c r="F3" s="21">
+      <c r="E3" s="1"/>
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F5" si="0">D3*E3</f>
         <v>0</v>
       </c>
@@ -3478,26 +3576,27 @@
         <f>Assembly!J3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="16">
         <f>Assembly!K3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="14">
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="15">
         <f>[1]Summary!$R$89/1000</f>
         <v>0.11592309617457708</v>
       </c>
-      <c r="F4" s="21">
+      <c r="E4" s="1"/>
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3505,24 +3604,25 @@
         <f>Assembly!J4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <f>Assembly!K4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="A5" s="29"/>
+      <c r="B5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="32">
         <f>[1]Summary!$R$90/1000</f>
         <v>0.11588803411560743</v>
       </c>
-      <c r="F5" s="21">
+      <c r="E5" s="1"/>
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3530,7 +3630,7 @@
         <f>Assembly!J5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="16">
         <f>Assembly!K5</f>
         <v>53.240934069220046</v>
       </c>
@@ -3548,7 +3648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3575,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>28</v>
@@ -3593,19 +3693,19 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,7 +3727,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3654,19 +3754,19 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>136</v>
+      <c r="B11" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>30</v>
@@ -3674,7 +3774,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3683,8 +3783,8 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
-      <c r="B13" s="26" t="s">
-        <v>137</v>
+      <c r="B13" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>32</v>
@@ -3692,8 +3792,8 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
-      <c r="B14" s="26" t="s">
-        <v>138</v>
+      <c r="B14" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>32</v>
@@ -3702,21 +3802,21 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3741,7 +3841,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3752,7 +3852,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3760,7 +3860,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>30</v>
@@ -3769,10 +3869,10 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -3809,7 +3909,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>32</v>
@@ -3825,12 +3925,12 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24" t="s">
-        <v>81</v>
+      <c r="A28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="154">
   <si>
     <t>Operation</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Assembly of one y of exhaust system or muffler</t>
+  </si>
+  <si>
+    <t>m² of surface</t>
   </si>
 </sst>
 </file>
@@ -815,14 +818,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -2198,7 +2201,7 @@
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2213,7 +2216,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <f>([1]Summary!$R$63*[1]Summary!$R$64/E3+[1]Summary!$R$63*(1-[1]Summary!$R$64))*J3</f>
         <v>9.0620474126271226E-5</v>
       </c>
@@ -2234,7 +2237,7 @@
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2247,7 +2250,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <f>([1]Summary!$R$49*[1]Summary!$R$50/E4 + [1]Summary!$R$49* (1 - [1]Summary!$R$50))*J4</f>
         <v>9.9420021477983827E-5</v>
       </c>
@@ -2268,7 +2271,7 @@
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2281,7 +2284,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="28"/>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <f>[1]Summary!$R$96*J5</f>
         <v>2.0823477092290108E-4</v>
       </c>
@@ -2302,7 +2305,7 @@
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2315,7 +2318,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="28"/>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <f>[1]Summary!$R$96</f>
         <v>2.0823477092290108E-4</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2365,7 +2368,7 @@
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2392,7 +2395,7 @@
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2416,7 +2419,7 @@
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2442,7 +2445,7 @@
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2468,7 +2471,7 @@
       <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
@@ -2492,7 +2495,7 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2516,7 +2519,7 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2542,10 +2545,10 @@
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2557,7 +2560,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="29">
         <f>[1]Summary!$R$69/E15</f>
         <v>1.6314296370642149E-5</v>
       </c>
@@ -2570,8 +2573,8 @@
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="30" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2583,7 +2586,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="29">
         <f>[1]Summary!$R$70/E16</f>
         <v>2.3608716631821412E-5</v>
       </c>
@@ -2596,8 +2599,8 @@
       <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2609,7 +2612,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <f>[1]Summary!$R$71/E17</f>
         <v>3.5493956046146703E-5</v>
       </c>
@@ -2622,7 +2625,7 @@
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2635,7 +2638,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <f>[1]Summary!$R$55/E18</f>
         <v>1.6314296370642149E-5</v>
       </c>
@@ -2648,7 +2651,7 @@
       <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2661,7 +2664,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <f>[1]Summary!$R$56/E19</f>
         <v>2.3608716631821412E-5</v>
       </c>
@@ -2674,7 +2677,7 @@
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2689,7 +2692,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <f>[1]Summary!$R$57/E20</f>
         <v>3.5493956046146703E-5</v>
       </c>
@@ -2702,10 +2705,10 @@
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2717,7 +2720,7 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <f>[1]Summary!$R$66/E21</f>
         <v>2.0392870463302686E-5</v>
       </c>
@@ -2730,8 +2733,8 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="32"/>
+      <c r="B22" s="30" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2743,7 +2746,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <f>[1]Summary!$R$67/E22</f>
         <v>2.9510895789776764E-5</v>
       </c>
@@ -2756,8 +2759,8 @@
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2769,7 +2772,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <f>[1]Summary!$R$68/E23</f>
         <v>4.4367445057683372E-5</v>
       </c>
@@ -2782,7 +2785,7 @@
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
@@ -2795,7 +2798,7 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="29">
         <f>[1]Summary!$R$52/E24</f>
         <v>2.0392870463302686E-5</v>
       </c>
@@ -2808,7 +2811,7 @@
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
@@ -2821,7 +2824,7 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <f>[1]Summary!$R$53/E25</f>
         <v>2.9510895789776764E-5</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,7 +2850,7 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <f>[1]Summary!$R$54/E26</f>
         <v>4.4367445057683372E-5</v>
       </c>
@@ -2965,15 +2968,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="4" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
@@ -3093,7 +3097,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <f>([1]Summary!$R$77*[1]Summary!$R$78/E4+[1]Summary!$R$77*(1-[1]Summary!$R$78))*J4</f>
         <v>3.6218228873642784E-4</v>
       </c>
@@ -3123,21 +3127,21 @@
         <v>88</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="15">
-        <f>[1]Summary!$R$84</f>
-        <v>10.684203010971698</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>66</v>
-      </c>
+        <f>[1]Summary!$R$84/(1.5*3)</f>
+        <v>2.3742673357714885</v>
+      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="16">
-        <f>F5</f>
-        <v>10.684203010971698</v>
+        <f>(ROUNDUP(G5*F5,2))</f>
+        <v>0</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -3151,7 +3155,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3175,7 +3179,7 @@
       <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3199,7 +3203,7 @@
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3225,7 +3229,7 @@
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -3528,7 +3532,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3537,7 +3541,7 @@
       <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*10/60</f>
         <v>7.2102901289134502</v>
       </c>
@@ -3556,14 +3560,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*3</f>
         <v>129.78522232044207</v>
       </c>
@@ -3582,7 +3586,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3610,14 +3614,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <f>[1]Summary!$R$90/1000</f>
         <v>0.11588803411560743</v>
       </c>
@@ -3648,7 +3652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="155">
   <si>
     <t>Operation</t>
   </si>
@@ -496,15 +496,19 @@
   </si>
   <si>
     <t>m² of surface</t>
+  </si>
+  <si>
+    <t>cm²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -782,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -823,6 +827,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1052,18 +1057,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2118,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G11:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2201,7 +2206,7 @@
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2237,7 +2242,7 @@
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2271,7 +2276,7 @@
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2305,7 +2310,7 @@
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2339,7 +2344,7 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2368,7 +2373,7 @@
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2395,7 +2400,7 @@
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2419,7 +2424,7 @@
       <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2445,7 +2450,7 @@
       <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2471,7 +2476,7 @@
       <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
@@ -2495,7 +2500,7 @@
       <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2519,7 +2524,7 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2545,7 +2550,7 @@
       <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="30" t="s">
@@ -2573,7 +2578,7 @@
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="30" t="s">
         <v>73</v>
       </c>
@@ -2599,7 +2604,7 @@
       <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="30" t="s">
         <v>74</v>
       </c>
@@ -2625,7 +2630,7 @@
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2651,7 +2656,7 @@
       <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2677,7 +2682,7 @@
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2705,7 +2710,7 @@
       <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="30" t="s">
@@ -2733,7 +2738,7 @@
       <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="30" t="s">
         <v>73</v>
       </c>
@@ -2759,7 +2764,7 @@
       <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="30" t="s">
         <v>74</v>
       </c>
@@ -2785,7 +2790,7 @@
       <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
@@ -2811,7 +2816,7 @@
       <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
@@ -2837,7 +2842,7 @@
       <c r="J25" s="28"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2969,7 +2974,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3155,7 +3160,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3170,16 +3175,18 @@
         <f>[1]Summary!$R$82</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H6" s="16">
-        <f t="shared" ref="H6:H9" si="0">G6*F6</f>
-        <v>0</v>
+        <f>F6</f>
+        <v>0.40785740926605374</v>
       </c>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3194,24 +3201,24 @@
         <f>[1]Summary!$R$83</f>
         <v>0.59021791579553518</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="H7:H9" si="0">F7</f>
+        <v>0.59021791579553518</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
@@ -3220,22 +3227,22 @@
         <f>[1]Summary!$R$80</f>
         <v>0.61178611389908066</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.61178611389908066</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
@@ -3244,10 +3251,12 @@
         <f>[1]Summary!$R$81</f>
         <v>0.88532687369330287</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="H9" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.88532687369330287</v>
       </c>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
@@ -3316,7 +3325,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,15 +3457,23 @@
       <c r="B5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="32">
+        <f>K2*(5/60)/100</f>
+        <v>2.0392870463302685E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <f>0.053*10000*2</f>
+        <v>1060</v>
+      </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21.616442691100847</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>Assembly!J5</f>
@@ -3472,11 +3489,16 @@
         <v>101</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="32">
+        <f>K3*(0.5/60)/100</f>
+        <v>2.9510895789776758E-3</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="15">
         <f t="shared" si="0"/>
@@ -3532,7 +3554,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3560,7 +3582,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
@@ -3586,7 +3608,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3614,7 +3636,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="155">
   <si>
     <t>Operation</t>
   </si>
@@ -786,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -814,8 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1057,18 +1055,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1388,12 +1386,12 @@
       <c r="B2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="15">
         <f>$K$2*6/60</f>
         <v>2.4471444555963227</v>
@@ -1476,12 +1474,12 @@
       <c r="B5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="15">
         <f>$K$2*15/60</f>
         <v>6.117861138990806</v>
@@ -1502,12 +1500,12 @@
       <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="15">
         <f>$K$2*10/60</f>
         <v>4.0785740926605367</v>
@@ -1521,12 +1519,12 @@
       <c r="B7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="15">
         <f>$K$2*15/60</f>
         <v>6.117861138990806</v>
@@ -1539,12 +1537,12 @@
       <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="15">
         <f>$K$2*30/60</f>
         <v>12.235722277981612</v>
@@ -1557,12 +1555,12 @@
       <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
@@ -1575,19 +1573,19 @@
       <c r="B10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="15">
         <f>$K$2*2*10/60</f>
         <v>8.1571481853210734</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1610,7 +1608,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1639,12 +1637,12 @@
       <c r="B13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
@@ -1657,12 +1655,12 @@
       <c r="B14" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="15">
         <f>$K$2*10/60</f>
         <v>4.0785740926605367</v>
@@ -1675,12 +1673,12 @@
       <c r="B15" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="15">
         <f t="shared" ref="G15:G16" si="0">$K$2*5/60</f>
         <v>2.0392870463302684</v>
@@ -1693,12 +1691,12 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="15">
         <f t="shared" si="0"/>
         <v>2.0392870463302684</v>
@@ -1708,7 +1706,7 @@
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1731,7 +1729,7 @@
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="1" t="s">
         <v>146</v>
       </c>
@@ -1752,7 +1750,7 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="24" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1775,7 +1773,7 @@
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2017,7 +2015,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2123,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G11:G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2172,12 +2170,14 @@
       <c r="J1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="21"/>
+      <c r="L1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1"/>
       <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2189,24 +2189,30 @@
       <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="15">
         <f>M2*2/60</f>
-        <v>0</v>
+        <v>0.81571481853210748</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="16">
         <f>G2*F2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="24"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="L2" s="1" t="str">
+        <f>Assembly!J2</f>
+        <v>Operator cost/hour</v>
+      </c>
+      <c r="M2" s="16">
+        <f>Assembly!K2</f>
+        <v>24.471444555963224</v>
+      </c>
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2221,7 +2227,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <f>([1]Summary!$R$63*[1]Summary!$R$64/E3+[1]Summary!$R$63*(1-[1]Summary!$R$64))*J3</f>
         <v>9.0620474126271226E-5</v>
       </c>
@@ -2237,12 +2243,18 @@
         <f>VLOOKUP(I3,$A$32:$B$34,2)</f>
         <v>1</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="1" t="str">
+        <f>Assembly!J3</f>
+        <v>Technician cost/hour</v>
+      </c>
+      <c r="M3" s="16">
+        <f>Assembly!K3</f>
+        <v>35.413074947732113</v>
+      </c>
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2255,7 +2267,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <f>([1]Summary!$R$49*[1]Summary!$R$50/E4 + [1]Summary!$R$49* (1 - [1]Summary!$R$50))*J4</f>
         <v>9.9420021477983827E-5</v>
       </c>
@@ -2271,12 +2283,18 @@
         <f t="shared" ref="J4:J6" si="1">VLOOKUP(I4,$A$32:$B$34,2)</f>
         <v>1</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="1" t="str">
+        <f>Assembly!J4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="M4" s="16">
+        <f>Assembly!K4</f>
+        <v>41.556723542904258</v>
+      </c>
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2288,8 +2306,8 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29">
+      <c r="E5" s="26"/>
+      <c r="F5" s="27">
         <f>[1]Summary!$R$96*J5</f>
         <v>2.0823477092290108E-4</v>
       </c>
@@ -2305,12 +2323,18 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="1" t="str">
+        <f>Assembly!J5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="M5" s="16">
+        <f>Assembly!K5</f>
+        <v>53.240934069220046</v>
+      </c>
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2322,8 +2346,8 @@
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27">
         <f>[1]Summary!$R$96</f>
         <v>2.0823477092290108E-4</v>
       </c>
@@ -2344,7 +2368,7 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2354,7 +2378,7 @@
       <c r="D7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="15">
         <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
@@ -2366,14 +2390,14 @@
         <f>F7</f>
         <v>14.168537491920908</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2381,7 +2405,7 @@
       <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
@@ -2393,14 +2417,14 @@
         <f t="shared" ref="H8:H14" si="2">F8</f>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2408,7 +2432,7 @@
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="15">
         <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
@@ -2420,11 +2444,11 @@
         <f t="shared" si="2"/>
         <v>15.937032036162622</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2434,7 +2458,7 @@
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
@@ -2446,11 +2470,11 @@
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2460,7 +2484,7 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="15">
         <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
@@ -2472,11 +2496,11 @@
         <f t="shared" si="2"/>
         <v>14.168537491920908</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
@@ -2484,7 +2508,7 @@
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
@@ -2496,11 +2520,11 @@
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2508,7 +2532,7 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="15">
         <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
@@ -2520,11 +2544,11 @@
         <f t="shared" si="2"/>
         <v>15.937032036162622</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="31" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2534,7 +2558,7 @@
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="15">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
@@ -2546,14 +2570,14 @@
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2565,7 +2589,7 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="27">
         <f>[1]Summary!$R$69/E15</f>
         <v>1.6314296370642149E-5</v>
       </c>
@@ -2574,12 +2598,12 @@
         <f>G15*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2591,7 +2615,7 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="27">
         <f>[1]Summary!$R$70/E16</f>
         <v>2.3608716631821412E-5</v>
       </c>
@@ -2600,12 +2624,12 @@
         <f>G16*F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2617,7 +2641,7 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="27">
         <f>[1]Summary!$R$71/E17</f>
         <v>3.5493956046146703E-5</v>
       </c>
@@ -2626,11 +2650,11 @@
         <f t="shared" ref="H17:H28" si="3">G17*F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2643,7 +2667,7 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <f>[1]Summary!$R$55/E18</f>
         <v>1.6314296370642149E-5</v>
       </c>
@@ -2652,11 +2676,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2669,7 +2693,7 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <f>[1]Summary!$R$56/E19</f>
         <v>2.3608716631821412E-5</v>
       </c>
@@ -2678,11 +2702,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2697,7 +2721,7 @@
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="27">
         <f>[1]Summary!$R$57/E20</f>
         <v>3.5493956046146703E-5</v>
       </c>
@@ -2706,14 +2730,14 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2725,7 +2749,7 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <f>[1]Summary!$R$66/E21</f>
         <v>2.0392870463302686E-5</v>
       </c>
@@ -2734,12 +2758,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="28" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2751,7 +2775,7 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="27">
         <f>[1]Summary!$R$67/E22</f>
         <v>2.9510895789776764E-5</v>
       </c>
@@ -2760,12 +2784,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="28" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2777,7 +2801,7 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="27">
         <f>[1]Summary!$R$68/E23</f>
         <v>4.4367445057683372E-5</v>
       </c>
@@ -2786,11 +2810,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
@@ -2803,7 +2827,7 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="27">
         <f>[1]Summary!$R$52/E24</f>
         <v>2.0392870463302686E-5</v>
       </c>
@@ -2812,11 +2836,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
@@ -2829,7 +2853,7 @@
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="27">
         <f>[1]Summary!$R$53/E25</f>
         <v>2.9510895789776764E-5</v>
       </c>
@@ -2838,11 +2862,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
@@ -2855,7 +2879,7 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="27">
         <f>[1]Summary!$R$54/E26</f>
         <v>4.4367445057683372E-5</v>
       </c>
@@ -2864,11 +2888,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2880,21 +2904,21 @@
       <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="16">
         <f>$M$2*5/60</f>
-        <v>0</v>
+        <v>2.0392870463302684</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2906,18 +2930,18 @@
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="28"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="16">
         <f>$M$2*2/60</f>
-        <v>0</v>
+        <v>0.81571481853210748</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
@@ -2973,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3029,7 +3053,7 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3041,7 +3065,7 @@
       <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="15">
         <f>M2*5/60</f>
         <v>2.0392870463302684</v>
@@ -3051,8 +3075,8 @@
         <f>F2*G2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="L2" s="1" t="str">
         <f>Assembly!J2</f>
         <v>Operator cost/hour</v>
@@ -3063,7 +3087,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="1"/>
@@ -3073,12 +3097,12 @@
       <c r="D3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="26"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="L3" s="1" t="str">
         <f>Assembly!J3</f>
         <v>Technician cost/hour</v>
@@ -3089,7 +3113,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="1"/>
@@ -3102,7 +3126,7 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <f>([1]Summary!$R$77*[1]Summary!$R$78/E4+[1]Summary!$R$77*(1-[1]Summary!$R$78))*J4</f>
         <v>3.6218228873642784E-4</v>
       </c>
@@ -3128,7 +3152,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="1"/>
@@ -3138,7 +3162,7 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="15">
         <f>[1]Summary!$R$84/(1.5*3)</f>
         <v>2.3742673357714885</v>
@@ -3148,8 +3172,8 @@
         <f>(ROUNDUP(G5*F5,2))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="L5" s="1" t="str">
         <f>Assembly!J5</f>
         <v>Engineer cost/hour</v>
@@ -3160,7 +3184,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3170,7 +3194,7 @@
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="15">
         <f>[1]Summary!$R$82</f>
         <v>0.40785740926605374</v>
@@ -3182,11 +3206,11 @@
         <f>F6</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3196,7 +3220,7 @@
       <c r="D7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="15">
         <f>[1]Summary!$R$83</f>
         <v>0.59021791579553518</v>
@@ -3208,11 +3232,11 @@
         <f t="shared" ref="H7:H9" si="0">F7</f>
         <v>0.59021791579553518</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="31" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3222,7 +3246,7 @@
       <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="15">
         <f>[1]Summary!$R$80</f>
         <v>0.61178611389908066</v>
@@ -3234,11 +3258,11 @@
         <f t="shared" si="0"/>
         <v>0.61178611389908066</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -3246,7 +3270,7 @@
       <c r="D9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="15">
         <f>[1]Summary!$R$81</f>
         <v>0.88532687369330287</v>
@@ -3258,11 +3282,11 @@
         <f t="shared" si="0"/>
         <v>0.88532687369330287</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B10" s="1"/>
@@ -3272,12 +3296,12 @@
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
@@ -3367,7 +3391,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3398,7 +3422,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="1"/>
@@ -3427,7 +3451,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1"/>
@@ -3451,7 +3475,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3463,7 +3487,7 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="30">
         <f>K2*(5/60)/100</f>
         <v>2.0392870463302685E-2</v>
       </c>
@@ -3485,7 +3509,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B6" s="1"/>
@@ -3495,7 +3519,7 @@
       <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <f>K3*(0.5/60)/100</f>
         <v>2.9510895789776758E-3</v>
       </c>
@@ -3554,7 +3578,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3563,7 +3587,7 @@
       <c r="C2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="29">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*10/60</f>
         <v>7.2102901289134502</v>
       </c>
@@ -3582,14 +3606,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="29">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*3</f>
         <v>129.78522232044207</v>
       </c>
@@ -3608,7 +3632,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="31" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3636,14 +3660,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <f>[1]Summary!$R$90/1000</f>
         <v>0.11588803411560743</v>
       </c>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="158">
   <si>
     <t>Operation</t>
   </si>
@@ -499,6 +499,15 @@
   </si>
   <si>
     <t>cm²</t>
+  </si>
+  <si>
+    <t>Drivetrain, Socket carrier on differential</t>
+  </si>
+  <si>
+    <t>Drivetrain, adjustment length chain</t>
+  </si>
+  <si>
+    <t>Drivetrain, Installation chain</t>
   </si>
 </sst>
 </file>
@@ -1335,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,10 +1577,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="1" t="s">
@@ -1580,62 +1589,52 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="15">
-        <f>$K$2*2*10/60</f>
-        <v>8.1571481853210734</v>
+        <f t="shared" ref="G10:G12" si="0">$K$2*5/60</f>
+        <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>148</v>
+      <c r="A11" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C11" s="23"/>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="15">
-        <f>$K$2*0.25/60</f>
-        <v>0.10196435231651343</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="15">
-        <f>E11*F11</f>
-        <v>0</v>
+        <f>$K$2*10/60</f>
+        <v>4.0785740926605367</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>148</v>
+      <c r="A12" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C12" s="23"/>
       <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="15">
-        <f>$K$2*0.5/60</f>
-        <v>0.20392870463302687</v>
-      </c>
-      <c r="F12" s="1"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="15">
-        <f>E12*F12</f>
-        <v>0</v>
+        <f>$K$2*10/60</f>
+        <v>4.0785740926605367</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="1" t="s">
@@ -1644,44 +1643,54 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="15">
-        <f>$K$2*5/60</f>
-        <v>2.0392870463302684</v>
+        <f>$K$2*2*10/60</f>
+        <v>8.1571481853210734</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
+      <c r="A14" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="15">
+        <f>$K$2*0.25/60</f>
+        <v>0.10196435231651343</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="15">
-        <f>$K$2*10/60</f>
-        <v>4.0785740926605367</v>
+        <f>E14*F14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
+      <c r="A15" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="15">
+        <f>$K$2*0.5/60</f>
+        <v>0.20392870463302687</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="15">
-        <f t="shared" ref="G15:G16" si="0">$K$2*5/60</f>
-        <v>2.0392870463302684</v>
+        <f>E15*F15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1689,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="1" t="s">
@@ -1698,7 +1707,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="15">
-        <f t="shared" si="0"/>
+        <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
@@ -1706,152 +1715,206 @@
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="15">
+        <f>$K$2*10/60</f>
+        <v>4.0785740926605367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="15">
+        <f t="shared" ref="G18:G19" si="1">$K$2*5/60</f>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="15">
         <f>$K$2*1/60</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="15">
-        <f>F17*E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="15">
+        <f>F20*E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="1" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="15">
         <f>$K$2*0.25/60</f>
         <v>0.10196435231651343</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="15">
-        <f>F18*E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="15">
+        <f>F21*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B22" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="15">
-        <f t="shared" ref="E19" si="1">$K$2*1/60</f>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" ref="E22" si="2">$K$2*1/60</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="15">
-        <f t="shared" ref="G19:G20" si="2">F19*E19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="15">
+        <f t="shared" ref="G22:G23" si="3">F22*E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="15">
         <f>$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="15">
-        <f>E21*F21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="15">
+        <f>E24*F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="15">
-        <f t="shared" ref="E22:E23" si="3">$K$2*0.5/60</f>
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" ref="E25:E26" si="4">$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="15">
-        <f t="shared" ref="G22:G23" si="4">E22*F22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="15">
+        <f t="shared" ref="G25:G26" si="5">E25*F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15">
-        <f t="shared" si="3"/>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="4"/>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="15">
-        <f t="shared" si="4"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2121,7 +2184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="162">
   <si>
     <t>Operation</t>
   </si>
@@ -508,16 +508,29 @@
   </si>
   <si>
     <t>Drivetrain, Installation chain</t>
+  </si>
+  <si>
+    <t>Cans on frame, Hose mounting on cans</t>
+  </si>
+  <si>
+    <t>Drivetrain, tripods on shafts</t>
+  </si>
+  <si>
+    <t>Drivetrain, excentric on differential</t>
+  </si>
+  <si>
+    <t>Drivetrain, axle boots on shaft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -795,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -838,6 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1344,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,7 +1603,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="15">
-        <f t="shared" ref="G10:G12" si="0">$K$2*5/60</f>
+        <f t="shared" ref="G10" si="0">$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
@@ -1631,10 +1645,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="1" t="s">
@@ -1643,62 +1657,52 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="15">
-        <f>$K$2*2*10/60</f>
-        <v>8.1571481853210734</v>
+        <f>$K$2*1/60</f>
+        <v>0.40785740926605374</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>148</v>
+      <c r="A14" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C14" s="23"/>
       <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="15">
-        <f>$K$2*0.25/60</f>
-        <v>0.10196435231651343</v>
-      </c>
-      <c r="F14" s="1"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="15">
-        <f>E14*F14</f>
-        <v>0</v>
+        <f>$K$2*1/60</f>
+        <v>0.40785740926605374</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>148</v>
+      <c r="A15" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="15">
-        <f>$K$2*0.5/60</f>
-        <v>0.20392870463302687</v>
-      </c>
-      <c r="F15" s="1"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="15">
-        <f>E15*F15</f>
-        <v>0</v>
+        <f>$K$2*5/60</f>
+        <v>2.0392870463302684</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="1" t="s">
@@ -1713,10 +1717,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="1" t="s">
@@ -1725,195 +1729,277 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="15">
-        <f>$K$2*10/60</f>
-        <v>4.0785740926605367</v>
+        <f>$K$2*2*10/60</f>
+        <v>8.1571481853210734</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
+      <c r="A18" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="23"/>
+        <v>150</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="15">
+        <f>$K$2*0.25/60</f>
+        <v>0.10196435231651343</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="15">
-        <f t="shared" ref="G18:G19" si="1">$K$2*5/60</f>
-        <v>2.0392870463302684</v>
+        <f>E18*F18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
+      <c r="A19" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="15">
+        <f>$K$2*0.5/60</f>
+        <v>0.20392870463302687</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="15">
-        <f t="shared" si="1"/>
-        <v>2.0392870463302684</v>
+        <f>E19*F19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="15">
+        <f>$K$2*5/60</f>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="15">
+        <f>$K$2*10/60</f>
+        <v>4.0785740926605367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="15">
+        <f t="shared" ref="G22:G23" si="1">$K$2*5/60</f>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="15">
+        <f t="shared" si="1"/>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="15">
         <f>$K$2*1/60</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="15">
-        <f>F20*E20</f>
+      <c r="F24" s="1"/>
+      <c r="G24" s="15">
+        <f>F24*E24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="1" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="D25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="15">
         <f>$K$2*0.25/60</f>
         <v>0.10196435231651343</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="15">
-        <f>F21*E21</f>
+      <c r="F25" s="1"/>
+      <c r="G25" s="15">
+        <f>F25*E25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B26" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="15">
-        <f t="shared" ref="E22" si="2">$K$2*1/60</f>
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" ref="E26" si="2">$K$2*1/60</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="15">
-        <f t="shared" ref="G22:G23" si="3">F22*E22</f>
+      <c r="F26" s="1"/>
+      <c r="G26" s="15">
+        <f t="shared" ref="G26:G27" si="3">F26*E26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B27" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="15">
+      <c r="F27" s="1"/>
+      <c r="G27" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="15">
         <f>$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="15">
-        <f>E24*F24</f>
+      <c r="F28" s="1"/>
+      <c r="G28" s="15">
+        <f>E28*F28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="15">
-        <f t="shared" ref="E25:E26" si="4">$K$2*0.5/60</f>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" ref="E29:E30" si="4">$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="15">
-        <f t="shared" ref="G25:G26" si="5">E25*F25</f>
+      <c r="F29" s="1"/>
+      <c r="G29" s="15">
+        <f t="shared" ref="G29:G30" si="5">E29*F29</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="15">
         <f t="shared" si="4"/>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="15">
+      <c r="F30" s="1"/>
+      <c r="G30" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2184,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3061,7 +3147,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3412,7 +3498,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3550,17 +3636,16 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="32">
         <f>K2*(5/60)/100</f>
         <v>2.0392870463302685E-2</v>
       </c>
       <c r="F5" s="1">
-        <f>0.053*10000*2</f>
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>21.616442691100847</v>
+        <v>20.392870463302685</v>
       </c>
       <c r="J5" s="1" t="str">
         <f>Assembly!J5</f>
@@ -3602,7 +3687,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -526,11 +526,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -808,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -848,10 +849,11 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1360,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2361,7 +2363,7 @@
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2403,7 +2405,7 @@
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2443,7 +2445,7 @@
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2483,7 +2485,7 @@
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2517,7 +2519,7 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2546,7 +2548,7 @@
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2573,7 +2575,7 @@
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2597,7 +2599,7 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2623,7 +2625,7 @@
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2649,7 +2651,7 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
@@ -2673,7 +2675,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2697,7 +2699,7 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2723,7 +2725,7 @@
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -2751,7 +2753,7 @@
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="28" t="s">
         <v>73</v>
       </c>
@@ -2777,7 +2779,7 @@
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="28" t="s">
         <v>74</v>
       </c>
@@ -2803,7 +2805,7 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2829,7 +2831,7 @@
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2855,7 +2857,7 @@
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2883,7 +2885,7 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -2911,7 +2913,7 @@
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="28" t="s">
         <v>73</v>
       </c>
@@ -2937,7 +2939,7 @@
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="28" t="s">
         <v>74</v>
       </c>
@@ -2963,7 +2965,7 @@
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
@@ -2989,7 +2991,7 @@
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
@@ -3015,7 +3017,7 @@
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3146,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3247,9 +3249,15 @@
         <v>38</v>
       </c>
       <c r="E3" s="26"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="33">
+        <f>M2*1/(60*200)</f>
+        <v>2.0392870463302685E-3</v>
+      </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="16"/>
+      <c r="H3" s="16">
+        <f>G3*F3</f>
+        <v>0</v>
+      </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="L3" s="1" t="str">
@@ -3333,7 +3341,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3359,7 +3367,7 @@
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="32" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3385,7 +3393,7 @@
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3411,7 +3419,7 @@
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -3636,7 +3644,7 @@
       <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <f>K2*(5/60)/100</f>
         <v>2.0392870463302685E-2</v>
       </c>
@@ -3726,7 +3734,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3754,7 +3762,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
@@ -3780,7 +3788,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3808,7 +3816,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="684"/>
   </bookViews>
   <sheets>
     <sheet name="Assembly" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="164">
   <si>
     <t>Operation</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>Drivetrain, axle boots on shaft</t>
+  </si>
+  <si>
+    <t>Liquid Applicator gun</t>
+  </si>
+  <si>
+    <t>For fuel tank, thermal protection</t>
   </si>
 </sst>
 </file>
@@ -531,7 +537,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000\ &quot;€&quot;_-;\-* #,##0.0000\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -850,10 +856,10 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -1360,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,25 +1905,18 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="15">
-        <f t="shared" ref="E26" si="2">$K$2*1/60</f>
-        <v>0.40785740926605374</v>
-      </c>
-      <c r="F26" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="15">
-        <f t="shared" ref="G26:G27" si="3">F26*E26</f>
-        <v>0</v>
+        <f>K2*2/60</f>
+        <v>0.81571481853210748</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1925,69 +1924,71 @@
         <v>11</v>
       </c>
       <c r="B27" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" ref="E27" si="2">$K$2*1/60</f>
+        <v>0.40785740926605374</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="15">
+        <f t="shared" ref="G27:G28" si="3">F27*E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="15">
         <f>$K$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="15">
+      <c r="F28" s="1"/>
+      <c r="G28" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="15">
         <f>$K$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="15">
-        <f>E28*F28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="15">
-        <f t="shared" ref="E29:E30" si="4">$K$2*0.5/60</f>
-        <v>0.20392870463302687</v>
-      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="15">
-        <f t="shared" ref="G29:G30" si="5">E29*F29</f>
+        <f>E29*F29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
@@ -1997,11 +1998,32 @@
         <v>38</v>
       </c>
       <c r="E30" s="15">
+        <f t="shared" ref="E30:E31" si="4">$K$2*0.5/60</f>
+        <v>0.20392870463302687</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="15">
+        <f t="shared" ref="G30:G31" si="5">E30*F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="15">
         <f t="shared" si="4"/>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="15">
+      <c r="F31" s="1"/>
+      <c r="G31" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2363,7 +2385,7 @@
       <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2405,7 +2427,7 @@
       <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
@@ -2445,7 +2467,7 @@
       <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -2485,7 +2507,7 @@
       <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -2519,7 +2541,7 @@
       <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2548,7 +2570,7 @@
       <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -2575,7 +2597,7 @@
       <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="1" t="s">
         <v>71</v>
       </c>
@@ -2599,7 +2621,7 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2625,7 +2647,7 @@
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2651,7 +2673,7 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>69</v>
       </c>
@@ -2675,7 +2697,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="1" t="s">
         <v>71</v>
       </c>
@@ -2699,7 +2721,7 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2725,7 +2747,7 @@
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -2753,7 +2775,7 @@
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="28" t="s">
         <v>73</v>
       </c>
@@ -2779,7 +2801,7 @@
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="28" t="s">
         <v>74</v>
       </c>
@@ -2805,7 +2827,7 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="32"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
@@ -2831,7 +2853,7 @@
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
@@ -2857,7 +2879,7 @@
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2885,7 +2907,7 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -2913,7 +2935,7 @@
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="28" t="s">
         <v>73</v>
       </c>
@@ -2939,7 +2961,7 @@
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="28" t="s">
         <v>74</v>
       </c>
@@ -2965,7 +2987,7 @@
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,7 +3013,7 @@
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
@@ -3017,7 +3039,7 @@
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
@@ -3148,7 +3170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3249,7 +3271,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="26"/>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <f>M2*1/(60*200)</f>
         <v>2.0392870463302685E-3</v>
       </c>
@@ -3341,7 +3363,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3367,7 +3389,7 @@
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3393,7 +3415,7 @@
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3419,7 +3441,7 @@
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="1" t="s">
         <v>91</v>
       </c>
@@ -3506,7 +3528,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3734,7 +3756,7 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3762,7 +3784,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
         <v>111</v>
       </c>
@@ -3788,7 +3810,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3816,7 +3838,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="1" t="s">
         <v>117</v>
       </c>

--- a/CR - Cost Report/CBOM/Processes_cost.xlsx
+++ b/CR - Cost Report/CBOM/Processes_cost.xlsx
@@ -19,10 +19,9 @@
     <sheet name="Sheet material" sheetId="6" r:id="rId5"/>
     <sheet name="Surface operation" sheetId="7" r:id="rId6"/>
     <sheet name="Welding" sheetId="8" r:id="rId7"/>
-    <sheet name="Temporary" sheetId="1" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="164">
-  <si>
-    <t>Operation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="139">
   <si>
     <t>Assemble by hand</t>
   </si>
@@ -48,9 +44,6 @@
     <t>Assemble  (&gt;10kg)</t>
   </si>
   <si>
-    <t>Cut (scissor, knife)</t>
-  </si>
-  <si>
     <t>Cut metallic hosses (grinder)</t>
   </si>
   <si>
@@ -60,9 +53,6 @@
     <t>First start, Engine</t>
   </si>
   <si>
-    <t>Hand finish</t>
-  </si>
-  <si>
     <t>Install Tie wrap (zip tie, Cable clamp)</t>
   </si>
   <si>
@@ -72,9 +62,6 @@
     <t>Press operations</t>
   </si>
   <si>
-    <t>Sealing</t>
-  </si>
-  <si>
     <t>Saw or tubing cut</t>
   </si>
   <si>
@@ -84,48 +71,9 @@
     <t>Threadlock application</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Fuel line</t>
   </si>
   <si>
-    <t>Engine into the frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps de découpe du plan de joint plenum </t>
-  </si>
-  <si>
-    <t>Découpe disqueuse tuyau + prise en compte temps de mise en place du scotch autour + rectif à la pince après…</t>
-  </si>
-  <si>
-    <t>Installation d'un rilesan</t>
-  </si>
-  <si>
-    <t>Peindre une surface de carton jusqu'à la recouvrir entièrement par exemple et me communiquer la surface</t>
-  </si>
-  <si>
-    <t>Vérification étanchéité circuit essence (mettre en pression le circuit…)</t>
-  </si>
-  <si>
-    <t>Vérification étanchéité circuit refroidissement</t>
-  </si>
-  <si>
-    <t>Vérification étanchéité carter huile</t>
-  </si>
-  <si>
-    <t>Admission</t>
-  </si>
-  <si>
-    <t>Durée (1min, 2min, 5min, 10 min, … +/-5min près)</t>
-  </si>
-  <si>
-    <t>35 min</t>
-  </si>
-  <si>
-    <t>20 min</t>
-  </si>
-  <si>
     <t>10 min</t>
   </si>
   <si>
@@ -135,9 +83,6 @@
     <t>5 min</t>
   </si>
   <si>
-    <t>15min</t>
-  </si>
-  <si>
     <t>30 sec</t>
   </si>
   <si>
@@ -273,9 +218,6 @@
     <t>Milling (CNC) - Engineer</t>
   </si>
   <si>
-    <t>Drilled holes</t>
-  </si>
-  <si>
     <t>2 min</t>
   </si>
   <si>
@@ -285,12 +227,6 @@
     <t>Price (€)</t>
   </si>
   <si>
-    <t>Tapped holes</t>
-  </si>
-  <si>
-    <t>Cutting a tube and chamfering it</t>
-  </si>
-  <si>
     <t>Bending</t>
   </si>
   <si>
@@ -303,9 +239,6 @@
     <t>Laser cut, setup, install and remove</t>
   </si>
   <si>
-    <t>Non metal cutting</t>
-  </si>
-  <si>
     <t>Laser cut - Operator</t>
   </si>
   <si>
@@ -345,9 +278,6 @@
     <t>Chain oil</t>
   </si>
   <si>
-    <t>5 min, 20cm²</t>
-  </si>
-  <si>
     <t>Nbr of application</t>
   </si>
   <si>
@@ -396,21 +326,9 @@
     <t>nbr of bolts</t>
   </si>
   <si>
-    <t>15sec</t>
-  </si>
-  <si>
-    <t>Bolt</t>
-  </si>
-  <si>
-    <t>Exhaust system</t>
-  </si>
-  <si>
     <t>nbr of clamps</t>
   </si>
   <si>
-    <t>Hoses clamps</t>
-  </si>
-  <si>
     <t>Assembled together with clamps</t>
   </si>
   <si>
@@ -432,9 +350,6 @@
     <t>Engine, into the frame</t>
   </si>
   <si>
-    <t>10min, 2 operator</t>
-  </si>
-  <si>
     <t>nbr of application</t>
   </si>
   <si>
@@ -453,15 +368,9 @@
     <t>Tripods</t>
   </si>
   <si>
-    <t>1 min for 1 tripods</t>
-  </si>
-  <si>
     <t>nbr of tripods</t>
   </si>
   <si>
-    <t>Differential bearings</t>
-  </si>
-  <si>
     <t>To mount bearings</t>
   </si>
   <si>
@@ -526,6 +435,22 @@
   </si>
   <si>
     <t>For fuel tank, thermal protection</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>6 min</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>2 operators
+10 min</t>
+  </si>
+  <si>
+    <t>3 hours</t>
   </si>
 </sst>
 </file>
@@ -583,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -778,36 +703,73 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -815,18 +777,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -838,26 +797,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1366,664 +1363,754 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="15">
-        <f>$K$2*6/60</f>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26">
+        <f>$L$2*6/60</f>
         <v>2.4471444555963227</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="K2" s="34" t="str">
         <f>[1]Summary!$G$43</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="35">
         <f>[1]Summary!$J$43+[1]Summary!$J$42</f>
         <v>24.471444555963224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="15">
-        <f>$K$2*0.25/60</f>
+        <v>96</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12">
+        <f>$L$2*0.25/60</f>
         <v>0.10196435231651343</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="15">
-        <f>E3*F3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="str">
+      <c r="G3" s="1"/>
+      <c r="H3" s="27">
+        <f>F3*G3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="str">
         <f>[1]Summary!$G$44</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="27">
         <f>[1]Summary!$J$44+[1]Summary!$J$42</f>
         <v>35.413074947732113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="15">
-        <f>$K$2*0.5/60</f>
+        <v>97</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12">
+        <f>$L$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="15">
-        <f>E4*F4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="str">
+      <c r="G4" s="1"/>
+      <c r="H4" s="27">
+        <f>F4*G4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="6" t="str">
         <f>[1]Summary!$G$45</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="15">
+      <c r="L4" s="27">
         <f>[1]Summary!$J$45+[1]Summary!$J$42</f>
         <v>41.556723542904258</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="15">
-        <f>$K$2*15/60</f>
+        <v>99</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="27">
+        <f>$L$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="K5" s="8" t="str">
         <f>[1]Summary!$G$46</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="15">
+      <c r="L5" s="30">
         <f>[1]Summary!$J$46+[1]Summary!$J$42</f>
         <v>53.240934069220046</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="27">
+        <f>$L$2*10/60</f>
+        <v>4.0785740926605367</v>
+      </c>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="27">
+        <f>$L$2*15/60</f>
+        <v>6.117861138990806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="27">
+        <f>$L$2*30/60</f>
+        <v>12.235722277981612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="27">
+        <f>$L$2*5/60</f>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="27">
+        <f t="shared" ref="H10" si="0">$L$2*5/60</f>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="27">
+        <f>$L$2*10/60</f>
+        <v>4.0785740926605367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="15">
-        <f>$K$2*10/60</f>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="27">
+        <f>$L$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="27">
+        <f>$L$2*1/60</f>
+        <v>0.40785740926605374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="27">
+        <f>$L$2*1/60</f>
+        <v>0.40785740926605374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="27">
+        <f>$L$2*5/60</f>
+        <v>2.0392870463302684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="15">
-        <f>$K$2*15/60</f>
-        <v>6.117861138990806</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="15">
-        <f>$K$2*30/60</f>
-        <v>12.235722277981612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="15">
-        <f>$K$2*5/60</f>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="27">
+        <f>$L$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="15">
-        <f t="shared" ref="G10" si="0">$K$2*5/60</f>
+    <row r="17" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="27">
+        <f>$L$2*2*10/60</f>
+        <v>8.1571481853210734</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="12">
+        <f>$L$2*0.25/60</f>
+        <v>0.10196435231651343</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="27">
+        <f>F18*G18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12">
+        <f>$L$2*0.5/60</f>
+        <v>0.20392870463302687</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="27">
+        <f>F19*G19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="27">
+        <f>$L$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="15">
-        <f>$K$2*10/60</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="27">
+        <f>$L$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="15">
-        <f>$K$2*10/60</f>
-        <v>4.0785740926605367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="15">
-        <f>$K$2*1/60</f>
-        <v>0.40785740926605374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="15">
-        <f>$K$2*1/60</f>
-        <v>0.40785740926605374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="15">
-        <f>$K$2*5/60</f>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="27">
+        <f t="shared" ref="H22:H23" si="1">$L$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="15">
-        <f>$K$2*5/60</f>
-        <v>2.0392870463302684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="15">
-        <f>$K$2*2*10/60</f>
-        <v>8.1571481853210734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="15">
-        <f>$K$2*0.25/60</f>
-        <v>0.10196435231651343</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="15">
-        <f>E18*F18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="15">
-        <f>$K$2*0.5/60</f>
-        <v>0.20392870463302687</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="15">
-        <f>E19*F19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="15">
-        <f>$K$2*5/60</f>
-        <v>2.0392870463302684</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="15">
-        <f>$K$2*10/60</f>
-        <v>4.0785740926605367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="15">
-        <f t="shared" ref="G22:G23" si="1">$K$2*5/60</f>
-        <v>2.0392870463302684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="15">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="27">
         <f t="shared" si="1"/>
         <v>2.0392870463302684</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="12">
+        <f>$L$2*1/60</f>
+        <v>0.40785740926605374</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="27">
+        <f>G24*F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="15">
-        <f>$K$2*1/60</f>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="12">
+        <f>$L$2*0.25/60</f>
+        <v>0.10196435231651343</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="27">
+        <f>G25*F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="27">
+        <f>L2*2/60</f>
+        <v>0.81571481853210748</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" ref="F27" si="2">$L$2*1/60</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="15">
-        <f>F24*E24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="15">
-        <f>$K$2*0.25/60</f>
-        <v>0.10196435231651343</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="15">
-        <f>F25*E25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="15">
-        <f>K2*2/60</f>
-        <v>0.81571481853210748</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="27">
+        <f t="shared" ref="H27:H28" si="3">G27*F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="12">
+        <f>$L$2*5/60</f>
+        <v>2.0392870463302684</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="15">
-        <f t="shared" ref="E27" si="2">$K$2*1/60</f>
-        <v>0.40785740926605374</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="15">
-        <f t="shared" ref="G27:G28" si="3">F27*E27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="15">
-        <f>$K$2*5/60</f>
-        <v>2.0392870463302684</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="15">
-        <f>$K$2*0.5/60</f>
+        <v>105</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="12">
+        <f>$L$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="15">
-        <f>E29*F29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>14</v>
+      <c r="G29" s="1"/>
+      <c r="H29" s="27">
+        <f>F29*G29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="15">
-        <f t="shared" ref="E30:E31" si="4">$K$2*0.5/60</f>
+        <v>96</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" ref="F30:F31" si="4">$L$2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="15">
-        <f t="shared" ref="G30:G31" si="5">E30*F30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="15">
+      <c r="G30" s="1"/>
+      <c r="H30" s="27">
+        <f t="shared" ref="H30:H31" si="5">F30*G30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="29">
         <f t="shared" si="4"/>
         <v>0.20392870463302687</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="15">
+      <c r="G31" s="9"/>
+      <c r="H31" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2036,145 +2123,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="15">
-        <f>K2*5/60</f>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="35">
+        <f>L2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>Assembly!J2</f>
+      <c r="K2" s="1" t="str">
+        <f>Assembly!K2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="16">
-        <f>Assembly!K2</f>
+      <c r="L2" s="13">
+        <f>Assembly!L2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="15">
-        <f>K4*5/60</f>
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="27">
+        <f>L4*5/60</f>
         <v>3.4630602952420215</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f>Assembly!J3</f>
+      <c r="K3" s="1" t="str">
+        <f>Assembly!K3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="16">
-        <f>Assembly!K3</f>
+      <c r="L3" s="13">
+        <f>Assembly!L3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="15">
-        <f>$K$2*15/60</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="27">
+        <f>$L$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f>Assembly!J4</f>
+      <c r="K4" s="1" t="str">
+        <f>Assembly!K4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="16">
-        <f>Assembly!K4</f>
+      <c r="L4" s="13">
+        <f>Assembly!L4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>45</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="15">
-        <f>$K$2*15/60</f>
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="27">
+        <f>$L$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f>Assembly!J5</f>
+      <c r="K5" s="1" t="str">
+        <f>Assembly!K5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="16">
-        <f>Assembly!K5</f>
+      <c r="L5" s="13">
+        <f>Assembly!L5</f>
         <v>53.240934069220046</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="15">
-        <f>$K$2*15/60</f>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="30">
+        <f>$L$2*15/60</f>
         <v>6.117861138990806</v>
       </c>
     </row>
@@ -2185,103 +2291,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E3" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="15">
-        <f>$K$2*10/60</f>
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="35">
+        <f>$L$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>Assembly!J2</f>
+      <c r="K2" s="1" t="str">
+        <f>Assembly!K2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="16">
-        <f>Assembly!K2</f>
+      <c r="L2" s="13">
+        <f>Assembly!L2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="15">
-        <f>$K$2*10/60</f>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="30">
+        <f>$L$2*10/60</f>
         <v>4.0785740926605367</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f>Assembly!J3</f>
+      <c r="K3" s="1" t="str">
+        <f>Assembly!K3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="16">
-        <f>Assembly!K3</f>
+      <c r="L3" s="13">
+        <f>Assembly!L3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J4" s="1" t="str">
-        <f>Assembly!J4</f>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="1" t="str">
+        <f>Assembly!K4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="16">
-        <f>Assembly!K4</f>
+      <c r="L4" s="13">
+        <f>Assembly!L4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="J5" s="1" t="str">
-        <f>Assembly!J5</f>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="1" t="str">
+        <f>Assembly!K5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="16">
-        <f>Assembly!K5</f>
+      <c r="L5" s="13">
+        <f>Assembly!L5</f>
         <v>53.240934069220046</v>
       </c>
     </row>
@@ -2294,857 +2410,859 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
     <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>39</v>
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M1" s="1"/>
-      <c r="N1" s="21"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="15">
+      <c r="A2" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48">
         <f>M2*2/60</f>
         <v>0.81571481853210748</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="16">
+      <c r="G2" s="36"/>
+      <c r="H2" s="49">
         <f>G2*F2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
       <c r="L2" s="1" t="str">
-        <f>Assembly!J2</f>
+        <f>Assembly!K2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="M2" s="16">
-        <f>Assembly!K2</f>
+      <c r="M2" s="13">
+        <f>Assembly!L2</f>
         <v>24.471444555963224</v>
       </c>
-      <c r="N2" s="21"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
-        <v>51</v>
+      <c r="A3" s="58" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="20">
         <f>([1]Summary!$R$63*[1]Summary!$R$64/E3+[1]Summary!$R$63*(1-[1]Summary!$R$64))*J3</f>
         <v>9.0620474126271226E-5</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H6" si="0">G3*F3</f>
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="1">
+        <v>75</v>
+      </c>
+      <c r="J3" s="7">
         <f>VLOOKUP(I3,$A$32:$B$34,2)</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="str">
-        <f>Assembly!J3</f>
+        <f>Assembly!K3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="M3" s="16">
-        <f>Assembly!K3</f>
+      <c r="M3" s="13">
+        <f>Assembly!L3</f>
         <v>35.413074947732113</v>
       </c>
-      <c r="N3" s="21"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="20">
         <f>([1]Summary!$R$49*[1]Summary!$R$50/E4 + [1]Summary!$R$49* (1 - [1]Summary!$R$50))*J4</f>
         <v>9.9420021477983827E-5</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="1">
+        <v>75</v>
+      </c>
+      <c r="J4" s="7">
         <f t="shared" ref="J4:J6" si="1">VLOOKUP(I4,$A$32:$B$34,2)</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>Assembly!J4</f>
+        <f>Assembly!K4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="M4" s="16">
-        <f>Assembly!K4</f>
+      <c r="M4" s="13">
+        <f>Assembly!L4</f>
         <v>41.556723542904258</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>52</v>
+      <c r="A5" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27">
+        <v>20</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20">
         <f>[1]Summary!$R$96*J5</f>
         <v>2.0823477092290108E-4</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="1">
+        <v>75</v>
+      </c>
+      <c r="J5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>Assembly!J5</f>
+        <f>Assembly!K5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="M5" s="16">
-        <f>Assembly!K5</f>
+      <c r="M5" s="13">
+        <f>Assembly!L5</f>
         <v>53.240934069220046</v>
       </c>
-      <c r="N5" s="21"/>
+      <c r="N5" s="15"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>52</v>
+      <c r="A6" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20">
         <f>[1]Summary!$R$96</f>
         <v>2.0823477092290108E-4</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="1">
+        <v>75</v>
+      </c>
+      <c r="J6" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>53</v>
+      <c r="A7" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="15">
+        <v>20</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="12">
         <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="16">
+        <v>48</v>
+      </c>
+      <c r="H7" s="13">
         <f>F7</f>
         <v>14.168537491920908</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="41"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="15">
+        <v>20</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="12">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="16">
+        <v>48</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" ref="H8:H14" si="2">F8</f>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="41"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="15">
+        <v>20</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="12">
         <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="16">
+        <v>48</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="2"/>
         <v>15.937032036162622</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>53</v>
+      <c r="A10" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="15">
+        <v>20</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="12">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="16">
+        <v>48</v>
+      </c>
+      <c r="H10" s="13">
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>54</v>
+      <c r="A11" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="15">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="12">
         <f>[1]Summary!$R$72</f>
         <v>14.168537491920908</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="16">
+        <v>48</v>
+      </c>
+      <c r="H11" s="13">
         <f t="shared" si="2"/>
         <v>14.168537491920908</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="15">
+        <v>20</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="12">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="16">
+        <v>48</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="15">
+        <v>20</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="12">
         <f>[1]Summary!$R$58</f>
         <v>15.937032036162622</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="16">
+        <v>48</v>
+      </c>
+      <c r="H13" s="13">
         <f t="shared" si="2"/>
         <v>15.937032036162622</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="33" t="s">
-        <v>54</v>
+      <c r="A14" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="15">
+        <v>20</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="12">
         <f>[1]Summary!$R$97</f>
         <v>7.8177785461450551</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="16">
+        <v>48</v>
+      </c>
+      <c r="H14" s="13">
         <f t="shared" si="2"/>
         <v>7.8177785461450551</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>75</v>
+      <c r="A15" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="20">
         <f>[1]Summary!$R$69/E15</f>
         <v>1.6314296370642149E-5</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="16">
+      <c r="H15" s="13">
         <f>G15*F15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="28" t="s">
-        <v>73</v>
+      <c r="A16" s="58"/>
+      <c r="B16" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="20">
         <f>[1]Summary!$R$70/E16</f>
         <v>2.3608716631821412E-5</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="16">
+      <c r="H16" s="13">
         <f>G16*F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="28" t="s">
-        <v>74</v>
+      <c r="A17" s="58"/>
+      <c r="B17" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="20">
         <f>[1]Summary!$R$71/E17</f>
         <v>3.5493956046146703E-5</v>
       </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="16">
+      <c r="H17" s="13">
         <f t="shared" ref="H17:H28" si="3">G17*F17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="20">
         <f>[1]Summary!$R$55/E18</f>
         <v>1.6314296370642149E-5</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="16">
+      <c r="H18" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="20">
         <f>[1]Summary!$R$56/E19</f>
         <v>2.3608716631821412E-5</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="16">
+      <c r="H19" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>55</v>
+      <c r="A20" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="20">
         <f>[1]Summary!$R$57/E20</f>
         <v>3.5493956046146703E-5</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="16">
+      <c r="H20" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>75</v>
+      <c r="A21" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="20">
         <f>[1]Summary!$R$66/E21</f>
         <v>2.0392870463302686E-5</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="16">
+      <c r="H21" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="28" t="s">
-        <v>73</v>
+      <c r="A22" s="58"/>
+      <c r="B22" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="20">
         <f>[1]Summary!$R$67/E22</f>
         <v>2.9510895789776764E-5</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="16">
+      <c r="H22" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="28" t="s">
-        <v>74</v>
+      <c r="A23" s="58"/>
+      <c r="B23" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="20">
         <f>[1]Summary!$R$68/E23</f>
         <v>4.4367445057683372E-5</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="16">
+      <c r="H23" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="20">
         <f>[1]Summary!$R$52/E24</f>
         <v>2.0392870463302686E-5</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="16">
+      <c r="H24" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F25" s="20">
         <f>[1]Summary!$R$53/E25</f>
         <v>2.9510895789776764E-5</v>
       </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="16">
+      <c r="H25" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F26" s="20">
         <f>[1]Summary!$R$54/E26</f>
         <v>4.4367445057683372E-5</v>
       </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="16">
+      <c r="H26" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
-        <v>13</v>
+      <c r="A27" s="40" t="s">
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="16">
+        <v>20</v>
+      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="13">
         <f>$M$2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
       <c r="G27" s="1"/>
-      <c r="H27" s="16">
+      <c r="H27" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="26"/>
-      <c r="F28" s="16">
+      <c r="I27" s="19"/>
+      <c r="J27" s="41"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="44">
         <f>$M$2*2/60</f>
         <v>0.81571481853210748</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="16">
+      <c r="G28" s="9"/>
+      <c r="H28" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>94</v>
+      <c r="I28" s="43"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="A32" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="A33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="1">
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="10">
         <v>2.5</v>
       </c>
     </row>
@@ -3168,344 +3286,326 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B13" sqref="A11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="12" max="12" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>39</v>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="15">
+      <c r="A2" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="47"/>
+      <c r="F2" s="48">
         <f>M2*5/60</f>
         <v>2.0392870463302684</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="16">
+      <c r="G2" s="36"/>
+      <c r="H2" s="49">
         <f>F2*G2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="50"/>
       <c r="L2" s="1" t="str">
-        <f>Assembly!J2</f>
+        <f>Assembly!K2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="M2" s="16">
-        <f>Assembly!K2</f>
+      <c r="M2" s="13">
+        <f>Assembly!L2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>86</v>
+      <c r="A3" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="32">
+        <v>20</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="24">
         <f>M2*1/(60*200)</f>
         <v>2.0392870463302685E-3</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="16">
+      <c r="H3" s="13">
         <f>G3*F3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="41"/>
       <c r="L3" s="1" t="str">
-        <f>Assembly!J3</f>
+        <f>Assembly!K3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="M3" s="16">
-        <f>Assembly!K3</f>
+      <c r="M3" s="13">
+        <f>Assembly!L3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>87</v>
+      <c r="A4" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="20">
         <f>([1]Summary!$R$77*[1]Summary!$R$78/E4+[1]Summary!$R$77*(1-[1]Summary!$R$78))*J4</f>
         <v>3.6218228873642784E-4</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <f>G4*F4</f>
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="1">
-        <f>VLOOKUP(I4,$A$13:$B$14,2)</f>
+        <v>74</v>
+      </c>
+      <c r="J4" s="7">
+        <f>VLOOKUP(I4,$A$12:$B$13,2)</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="str">
-        <f>Assembly!J4</f>
+        <f>Assembly!K4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="M4" s="16">
-        <f>Assembly!K4</f>
+      <c r="M4" s="13">
+        <f>Assembly!L4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>88</v>
+      <c r="A5" s="40" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="15">
+        <v>20</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="12">
         <f>[1]Summary!$R$84/(1.5*3)</f>
         <v>2.3742673357714885</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <f>(ROUNDUP(G5*F5,2))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="41"/>
       <c r="L5" s="1" t="str">
-        <f>Assembly!J5</f>
+        <f>Assembly!K5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="M5" s="16">
-        <f>Assembly!K5</f>
+      <c r="M5" s="13">
+        <f>Assembly!L5</f>
         <v>53.240934069220046</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>55</v>
+      <c r="A6" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="15">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="12">
         <f>[1]Summary!$R$82</f>
         <v>0.40785740926605374</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="16">
+        <v>48</v>
+      </c>
+      <c r="H6" s="13">
         <f>F6</f>
         <v>0.40785740926605374</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>55</v>
+      <c r="A7" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="15">
+        <v>26</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="12">
         <f>[1]Summary!$R$83</f>
         <v>0.59021791579553518</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="16">
+        <v>48</v>
+      </c>
+      <c r="H7" s="13">
         <f t="shared" ref="H7:H9" si="0">F7</f>
         <v>0.59021791579553518</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>56</v>
+      <c r="A8" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="15">
+        <v>20</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="12">
         <f>[1]Summary!$R$80</f>
         <v>0.61178611389908066</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="16">
+        <v>48</v>
+      </c>
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>0.61178611389908066</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="15">
+      <c r="I8" s="19"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="59"/>
+      <c r="B9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="29">
         <f>[1]Summary!$R$81</f>
         <v>0.88532687369330287</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="44">
         <f t="shared" si="0"/>
         <v>0.88532687369330287</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="A12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="51">
         <v>0.72</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3520,15 +3620,16 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3542,169 +3643,151 @@
     <col min="10" max="10" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="15">
+      <c r="A2" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="48">
         <f>K2*2/60</f>
         <v>0.81571481853210748</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="15">
+      <c r="F2" s="36"/>
+      <c r="G2" s="35">
         <f>F2*E2</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f>Assembly!J2</f>
+        <f>Assembly!K2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="16">
-        <f>Assembly!K2</f>
+      <c r="K2" s="13">
+        <f>Assembly!L2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>100</v>
+      <c r="A3" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="15">
+        <v>20</v>
+      </c>
+      <c r="E3" s="12">
         <f>K2*0.5/60</f>
         <v>0.20392870463302687</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="15">
-        <f t="shared" ref="G3:G6" si="0">F3*E3</f>
+      <c r="G3" s="27">
+        <f t="shared" ref="G3:G5" si="0">F3*E3</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f>Assembly!J3</f>
+        <f>Assembly!K3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="16">
-        <f>Assembly!K3</f>
+      <c r="K3" s="13">
+        <f>Assembly!L3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f>Assembly!J4</f>
-        <v>Welder cost/hour</v>
-      </c>
-      <c r="K4" s="16">
-        <f>Assembly!K4</f>
-        <v>41.556723542904258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="31">
+        <v>20</v>
+      </c>
+      <c r="E4" s="23">
         <f>K2*(5/60)/100</f>
         <v>2.0392870463302685E-2</v>
       </c>
-      <c r="F5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F4" s="1"/>
+      <c r="G4" s="27">
         <f t="shared" si="0"/>
-        <v>20.392870463302685</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f>Assembly!J5</f>
-        <v>Engineer cost/hour</v>
-      </c>
-      <c r="K5" s="16">
-        <f>Assembly!K5</f>
-        <v>53.240934069220046</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>Assembly!K4</f>
+        <v>Welder cost/hour</v>
+      </c>
+      <c r="K4" s="13">
+        <f>Assembly!L4</f>
+        <v>41.556723542904258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="52">
         <f>K3*(0.5/60)/100</f>
         <v>2.9510895789776758E-3</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="15">
+      <c r="F5" s="9"/>
+      <c r="G5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>Assembly!K5</f>
+        <v>Engineer cost/hour</v>
+      </c>
+      <c r="K5" s="13">
+        <f>Assembly!L5</f>
+        <v>53.240934069220046</v>
       </c>
     </row>
   </sheetData>
@@ -3714,152 +3797,164 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="29">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="56">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*10/60</f>
         <v>7.2102901289134502</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="16">
-        <f>D2*E2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f>Assembly!J2</f>
+      <c r="F2" s="36"/>
+      <c r="G2" s="57">
+        <f>E2*F2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>Assembly!K2</f>
         <v>Operator cost/hour</v>
       </c>
-      <c r="K2" s="16">
-        <f>Assembly!K2</f>
+      <c r="L2" s="13">
+        <f>Assembly!L2</f>
         <v>24.471444555963224</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="29">
+        <v>91</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="22">
         <f>([1]Summary!$R$86+[1]Summary!$J$45)*3</f>
         <v>129.78522232044207</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="16">
-        <f t="shared" ref="F3:F5" si="0">D3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <f>Assembly!J3</f>
+      <c r="F3" s="1"/>
+      <c r="G3" s="53">
+        <f t="shared" ref="G3:G5" si="0">E3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f>Assembly!K3</f>
         <v>Technician cost/hour</v>
       </c>
-      <c r="K3" s="16">
-        <f>Assembly!K3</f>
+      <c r="L3" s="13">
+        <f>Assembly!L3</f>
         <v>35.413074947732113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>115</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="15">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="12">
         <f>[1]Summary!$R$89/1000</f>
         <v>0.11592309617457708</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="16">
+      <c r="F4" s="1"/>
+      <c r="G4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f>Assembly!J4</f>
+      <c r="K4" s="1" t="str">
+        <f>Assembly!K4</f>
         <v>Welder cost/hour</v>
       </c>
-      <c r="K4" s="16">
-        <f>Assembly!K4</f>
+      <c r="L4" s="13">
+        <f>Assembly!L4</f>
         <v>41.556723542904258</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="29">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="59"/>
+      <c r="B5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="54">
         <f>[1]Summary!$R$90/1000</f>
         <v>0.11588803411560743</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="16">
+      <c r="F5" s="9"/>
+      <c r="G5" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f>Assembly!J5</f>
+      <c r="K5" s="1" t="str">
+        <f>Assembly!K5</f>
         <v>Engineer cost/hour</v>
       </c>
-      <c r="K5" s="16">
-        <f>Assembly!K5</f>
+      <c r="L5" s="13">
+        <f>Assembly!L5</f>
         <v>53.240934069220046</v>
       </c>
     </row>
@@ -3870,307 +3965,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.5546875" customWidth="1"/>
-    <col min="2" max="2" width="64.21875" customWidth="1"/>
-    <col min="3" max="3" width="40.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>